--- a/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9772758579528126</v>
+        <v>1.012518091196239</v>
       </c>
       <c r="D2">
-        <v>0.9999923252583403</v>
+        <v>1.029152712189963</v>
       </c>
       <c r="E2">
-        <v>0.9843546027718567</v>
+        <v>1.023598753302241</v>
       </c>
       <c r="F2">
-        <v>0.9528828289321105</v>
+        <v>1.031384043595477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034844666560699</v>
+        <v>1.052477141170098</v>
       </c>
       <c r="J2">
-        <v>1.000158158437749</v>
+        <v>1.034330727825528</v>
       </c>
       <c r="K2">
-        <v>1.011451767003177</v>
+        <v>1.040220311142513</v>
       </c>
       <c r="L2">
-        <v>0.9960362935438083</v>
+        <v>1.034738825686392</v>
       </c>
       <c r="M2">
-        <v>0.9650400953575851</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.042422800913473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9874394944712531</v>
+        <v>1.021803845137061</v>
       </c>
       <c r="D3">
-        <v>1.00792295545554</v>
+        <v>1.036393170665474</v>
       </c>
       <c r="E3">
-        <v>0.993160528748178</v>
+        <v>1.031826381720909</v>
       </c>
       <c r="F3">
-        <v>0.9661365116633185</v>
+        <v>1.039961148387847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038705154067102</v>
+        <v>1.05589635518141</v>
       </c>
       <c r="J3">
-        <v>1.008278528382401</v>
+        <v>1.041717262065277</v>
       </c>
       <c r="K3">
-        <v>1.018455454452024</v>
+        <v>1.046580643601357</v>
       </c>
       <c r="L3">
-        <v>1.003881676418687</v>
+        <v>1.042067610219692</v>
       </c>
       <c r="M3">
-        <v>0.9772218372597685</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.050107028876964</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937224748865094</v>
+        <v>1.027593446301329</v>
       </c>
       <c r="D4">
-        <v>1.012828160520998</v>
+        <v>1.040909468770406</v>
       </c>
       <c r="E4">
-        <v>0.9986049668026338</v>
+        <v>1.036958305482339</v>
       </c>
       <c r="F4">
-        <v>0.9743165908241578</v>
+        <v>1.045314543505633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041073365346436</v>
+        <v>1.058012199797642</v>
       </c>
       <c r="J4">
-        <v>1.013288135041662</v>
+        <v>1.046316710168273</v>
       </c>
       <c r="K4">
-        <v>1.02277418765659</v>
+        <v>1.05053800477242</v>
       </c>
       <c r="L4">
-        <v>1.008720257857123</v>
+        <v>1.046630235866016</v>
       </c>
       <c r="M4">
-        <v>0.9847352048739599</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.054895174335359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962994233280947</v>
+        <v>1.029978593553847</v>
       </c>
       <c r="D5">
-        <v>1.01484046791642</v>
+        <v>1.042770367404082</v>
       </c>
       <c r="E5">
-        <v>1.00083805042702</v>
+        <v>1.039072901876196</v>
       </c>
       <c r="F5">
-        <v>0.9776692943824715</v>
+        <v>1.047521226755493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042040230353087</v>
+        <v>1.058879948993111</v>
       </c>
       <c r="J5">
-        <v>1.015340324861396</v>
+        <v>1.048210033209341</v>
       </c>
       <c r="K5">
-        <v>1.024542827404511</v>
+        <v>1.052166241809051</v>
       </c>
       <c r="L5">
-        <v>1.01070202486209</v>
+        <v>1.048508190515536</v>
       </c>
       <c r="M5">
-        <v>0.9878133372686876</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.056866957271388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996728482571852</v>
+        <v>1.030376306231704</v>
       </c>
       <c r="D6">
-        <v>1.015175536578389</v>
+        <v>1.043080678481561</v>
       </c>
       <c r="E6">
-        <v>1.0012098568137</v>
+        <v>1.039425521798464</v>
       </c>
       <c r="F6">
-        <v>0.9782273999465505</v>
+        <v>1.047889251292779</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042200948550252</v>
+        <v>1.059024409735648</v>
       </c>
       <c r="J6">
-        <v>1.015681865189803</v>
+        <v>1.048525645142551</v>
       </c>
       <c r="K6">
-        <v>1.024837144241417</v>
+        <v>1.052437617949789</v>
       </c>
       <c r="L6">
-        <v>1.011031822789322</v>
+        <v>1.048821228086522</v>
       </c>
       <c r="M6">
-        <v>0.9883256571538491</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.057195694021258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937571541559536</v>
+        <v>1.027625504032033</v>
       </c>
       <c r="D7">
-        <v>1.012855239576288</v>
+        <v>1.040934479237785</v>
       </c>
       <c r="E7">
-        <v>0.998635018423317</v>
+        <v>1.036986725423607</v>
       </c>
       <c r="F7">
-        <v>0.974361718098549</v>
+        <v>1.045344197802504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041086394682433</v>
+        <v>1.058023878460903</v>
       </c>
       <c r="J7">
-        <v>1.013315762284454</v>
+        <v>1.046342163605592</v>
       </c>
       <c r="K7">
-        <v>1.022797999849994</v>
+        <v>1.050559897572164</v>
       </c>
       <c r="L7">
-        <v>1.008746938521113</v>
+        <v>1.046655483533767</v>
       </c>
       <c r="M7">
-        <v>0.9847766417387113</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.054921679479343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9807752948547266</v>
+        <v>1.015703878371708</v>
       </c>
       <c r="D8">
-        <v>1.002722236688244</v>
+        <v>1.031636289618361</v>
       </c>
       <c r="E8">
-        <v>0.9873863205510597</v>
+        <v>1.026421013743338</v>
       </c>
       <c r="F8">
-        <v>0.9574495438774548</v>
+        <v>1.034325438354987</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036177724622088</v>
+        <v>1.053653563296232</v>
       </c>
       <c r="J8">
-        <v>1.002956252539909</v>
+        <v>1.036866148598194</v>
       </c>
       <c r="K8">
-        <v>1.013865459383637</v>
+        <v>1.042404123102091</v>
       </c>
       <c r="L8">
-        <v>0.9987399071813103</v>
+        <v>1.037254604479027</v>
       </c>
       <c r="M8">
-        <v>0.9692384960937035</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.045059688338223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9553339814844471</v>
+        <v>0.9928339130543867</v>
       </c>
       <c r="D9">
-        <v>0.9828963505875004</v>
+        <v>1.013822817713473</v>
       </c>
       <c r="E9">
-        <v>0.9653552127588748</v>
+        <v>1.00617465969652</v>
       </c>
       <c r="F9">
-        <v>0.9241462047627885</v>
+        <v>1.013240061193236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026407649786512</v>
+        <v>1.045141585356603</v>
       </c>
       <c r="J9">
-        <v>0.9825689733347699</v>
+        <v>1.018642287146412</v>
       </c>
       <c r="K9">
-        <v>0.9962731548805048</v>
+        <v>1.026695540716367</v>
       </c>
       <c r="L9">
-        <v>0.9790365524818543</v>
+        <v>1.019168345464883</v>
       </c>
       <c r="M9">
-        <v>0.9386027968516036</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.026121918816073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9360888893628261</v>
+        <v>0.9760279126069147</v>
       </c>
       <c r="D10">
-        <v>0.9679392460500611</v>
+        <v>1.000762064219642</v>
       </c>
       <c r="E10">
-        <v>0.9487119553722778</v>
+        <v>0.9913213683727871</v>
       </c>
       <c r="F10">
-        <v>0.8987497319924005</v>
+        <v>0.9977918517869292</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018918434053093</v>
+        <v>1.038804882106692</v>
       </c>
       <c r="J10">
-        <v>0.9670895855762353</v>
+        <v>1.005226011864409</v>
       </c>
       <c r="K10">
-        <v>0.9829125433856226</v>
+        <v>1.015117572979968</v>
       </c>
       <c r="L10">
-        <v>0.9640733800922964</v>
+        <v>1.005849106329459</v>
       </c>
       <c r="M10">
-        <v>0.9152240782594485</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.012201089814484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9270403079810177</v>
+        <v>0.9682945579787176</v>
       </c>
       <c r="D11">
-        <v>0.960921532003185</v>
+        <v>0.994762717329159</v>
       </c>
       <c r="E11">
-        <v>0.9408958233093276</v>
+        <v>0.9844950590396142</v>
       </c>
       <c r="F11">
-        <v>0.8867294553655086</v>
+        <v>0.9906971971818486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0153751491961</v>
+        <v>1.035871286836242</v>
       </c>
       <c r="J11">
-        <v>0.9597981511337791</v>
+        <v>0.9990485044140641</v>
       </c>
       <c r="K11">
-        <v>0.9766200579593221</v>
+        <v>1.00978408163189</v>
       </c>
       <c r="L11">
-        <v>0.957025609532173</v>
+        <v>0.9997154215809542</v>
       </c>
       <c r="M11">
-        <v>0.9041582100247518</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.005796709321472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9235517018320535</v>
+        <v>0.9653444173066118</v>
       </c>
       <c r="D12">
-        <v>0.9582186833829464</v>
+        <v>0.9924760323437023</v>
       </c>
       <c r="E12">
-        <v>0.937884174435509</v>
+        <v>0.9818924875308213</v>
       </c>
       <c r="F12">
-        <v>0.8820795124348184</v>
+        <v>0.9879930944991292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014005911032227</v>
+        <v>1.034749680520064</v>
       </c>
       <c r="J12">
-        <v>0.9569850040145595</v>
+        <v>0.9966914928982615</v>
       </c>
       <c r="K12">
-        <v>0.9741926471675035</v>
+        <v>1.007748813396508</v>
       </c>
       <c r="L12">
-        <v>0.9543066973311219</v>
+        <v>0.9973750202463479</v>
       </c>
       <c r="M12">
-        <v>0.8998777884791563</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.003354000689539</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9243061794802949</v>
+        <v>0.9659809104433764</v>
       </c>
       <c r="D13">
-        <v>0.9588030909955607</v>
+        <v>0.9929692899032585</v>
       </c>
       <c r="E13">
-        <v>0.9385354122202316</v>
+        <v>0.9824539180015067</v>
       </c>
       <c r="F13">
-        <v>0.8830859261512913</v>
+        <v>0.9885763921248713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0143021739882</v>
+        <v>1.034991776362644</v>
       </c>
       <c r="J13">
-        <v>0.9575934903340905</v>
+        <v>0.9972000328968035</v>
       </c>
       <c r="K13">
-        <v>0.9747176801658232</v>
+        <v>1.008187946940506</v>
       </c>
       <c r="L13">
-        <v>0.9548947874710993</v>
+        <v>0.997879981110279</v>
       </c>
       <c r="M13">
-        <v>0.9008042023515764</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.003880990504433</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9267546781697564</v>
+        <v>0.9680523408255446</v>
       </c>
       <c r="D14">
-        <v>0.9607001766477415</v>
+        <v>0.9945749302818918</v>
       </c>
       <c r="E14">
-        <v>0.9406492054060137</v>
+        <v>0.9842813455545698</v>
       </c>
       <c r="F14">
-        <v>0.8863490811169182</v>
+        <v>0.9904751305212577</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015263105295549</v>
+        <v>1.035779248197928</v>
       </c>
       <c r="J14">
-        <v>0.9595678646897736</v>
+        <v>0.9988549921440792</v>
       </c>
       <c r="K14">
-        <v>0.9764213403801026</v>
+        <v>1.009616990070004</v>
       </c>
       <c r="L14">
-        <v>0.9568030316579654</v>
+        <v>0.9995232751230818</v>
       </c>
       <c r="M14">
-        <v>0.9038080541586259</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.00559614344976</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9282456758206703</v>
+        <v>0.9693180295127795</v>
       </c>
       <c r="D15">
-        <v>0.9618557747961214</v>
+        <v>0.9955562800745138</v>
       </c>
       <c r="E15">
-        <v>0.9419366347404898</v>
+        <v>0.9853981547240329</v>
       </c>
       <c r="F15">
-        <v>0.8883339933123756</v>
+        <v>0.9916356227195245</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015847852224665</v>
+        <v>1.036260089841616</v>
       </c>
       <c r="J15">
-        <v>0.9607698876753314</v>
+        <v>0.9998661619435917</v>
       </c>
       <c r="K15">
-        <v>0.9774585981856421</v>
+        <v>1.010490091142407</v>
       </c>
       <c r="L15">
-        <v>0.9579648284320812</v>
+        <v>1.000527303730662</v>
       </c>
       <c r="M15">
-        <v>0.9056352928399936</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.006644206170891</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9366727540762906</v>
+        <v>0.9765308004976085</v>
       </c>
       <c r="D16">
-        <v>0.9683924116004001</v>
+        <v>1.001152439715945</v>
       </c>
       <c r="E16">
-        <v>0.9492165142924681</v>
+        <v>0.9917654686315328</v>
       </c>
       <c r="F16">
-        <v>0.8995234502874684</v>
+        <v>0.9982535152858624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019146630420675</v>
+        <v>1.038995298698213</v>
       </c>
       <c r="J16">
-        <v>0.9675597985414701</v>
+        <v>1.005627659726711</v>
       </c>
       <c r="K16">
-        <v>0.98331836899831</v>
+        <v>1.015464300973714</v>
       </c>
       <c r="L16">
-        <v>0.9645279011781996</v>
+        <v>1.006247888759364</v>
       </c>
       <c r="M16">
-        <v>0.9159363818998693</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012617604111881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9417548124552539</v>
+        <v>0.9809271358143931</v>
       </c>
       <c r="D17">
-        <v>0.9723385250145938</v>
+        <v>1.004566395956222</v>
       </c>
       <c r="E17">
-        <v>0.953609328985812</v>
+        <v>0.9956488491634049</v>
       </c>
       <c r="F17">
-        <v>0.9062489393547912</v>
+        <v>1.002291044173502</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021130472800558</v>
+        <v>1.040657989547539</v>
       </c>
       <c r="J17">
-        <v>0.9716511365362418</v>
+        <v>1.009138514640379</v>
       </c>
       <c r="K17">
-        <v>0.9868495893902931</v>
+        <v>1.018494830648532</v>
       </c>
       <c r="L17">
-        <v>0.9684827719195168</v>
+        <v>1.009733602371533</v>
       </c>
       <c r="M17">
-        <v>0.9221279960183056</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016259021980561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9446516785002917</v>
+        <v>0.9834481181870879</v>
       </c>
       <c r="D18">
-        <v>0.9745891956502386</v>
+        <v>1.006525015557344</v>
       </c>
       <c r="E18">
-        <v>0.9561141200741485</v>
+        <v>0.9978764595781004</v>
       </c>
       <c r="F18">
-        <v>0.9100755788442019</v>
+        <v>1.004607548800697</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0222592668057</v>
+        <v>1.041609761875976</v>
       </c>
       <c r="J18">
-        <v>0.973982044142793</v>
+        <v>1.011151356441425</v>
       </c>
       <c r="K18">
-        <v>0.9888614585285866</v>
+        <v>1.020232061296634</v>
       </c>
       <c r="L18">
-        <v>0.9707359666924775</v>
+        <v>1.011731949047873</v>
       </c>
       <c r="M18">
-        <v>0.9256507877812291</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.018347221099476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9456285231550413</v>
+        <v>0.9843006080398954</v>
       </c>
       <c r="D19">
-        <v>0.9753483471049209</v>
+        <v>1.007187491269053</v>
       </c>
       <c r="E19">
-        <v>0.9569588802481076</v>
+        <v>0.9986298669883883</v>
       </c>
       <c r="F19">
-        <v>0.9113648496781313</v>
+        <v>1.005391100815723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02263955561379</v>
+        <v>1.041931324638738</v>
       </c>
       <c r="J19">
-        <v>0.9747678341260411</v>
+        <v>1.011831944786846</v>
       </c>
       <c r="K19">
-        <v>0.9895397022062711</v>
+        <v>1.020819417846507</v>
       </c>
       <c r="L19">
-        <v>0.9714955606312048</v>
+        <v>1.012407622029385</v>
       </c>
       <c r="M19">
-        <v>0.9268376619469996</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.019053373585908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9412166559459113</v>
+        <v>0.9804599922352982</v>
       </c>
       <c r="D20">
-        <v>0.9719205170023272</v>
+        <v>1.004203535075877</v>
       </c>
       <c r="E20">
-        <v>0.9531440720513035</v>
+        <v>0.9952361288833553</v>
       </c>
       <c r="F20">
-        <v>0.9055375080908147</v>
+        <v>1.00186189212651</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0209206080252</v>
+        <v>1.040481488022772</v>
       </c>
       <c r="J20">
-        <v>0.9712180189474642</v>
+        <v>1.008765498424239</v>
       </c>
       <c r="K20">
-        <v>0.9864757584990198</v>
+        <v>1.018172870913895</v>
       </c>
       <c r="L20">
-        <v>0.9680640964953565</v>
+        <v>1.009363265664048</v>
       </c>
       <c r="M20">
-        <v>0.9214730453128112</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015872081223967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.926037368495783</v>
+        <v>0.9674445808852216</v>
       </c>
       <c r="D21">
-        <v>0.9601443275809853</v>
+        <v>0.9941037766468825</v>
       </c>
       <c r="E21">
-        <v>0.9400298977346621</v>
+        <v>0.9837451315132222</v>
       </c>
       <c r="F21">
-        <v>0.8853935726528432</v>
+        <v>0.9899179706193536</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014981676615826</v>
+        <v>1.035548269831444</v>
       </c>
       <c r="J21">
-        <v>0.9589895084012332</v>
+        <v>0.9983694345241041</v>
       </c>
       <c r="K21">
-        <v>0.9759222741257186</v>
+        <v>1.009197722475843</v>
       </c>
       <c r="L21">
-        <v>0.9562440393753783</v>
+        <v>0.999041142878309</v>
       </c>
       <c r="M21">
-        <v>0.9029284616149327</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005092901122224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9157407363528057</v>
+        <v>0.9588062594302049</v>
       </c>
       <c r="D22">
-        <v>0.9521729243728381</v>
+        <v>0.9874123345405976</v>
       </c>
       <c r="E22">
-        <v>0.931145033232925</v>
+        <v>0.9761278299958832</v>
       </c>
       <c r="F22">
-        <v>0.8716339381874019</v>
+        <v>0.9820050042230346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010934528383913</v>
+        <v>1.032259563271869</v>
       </c>
       <c r="J22">
-        <v>0.950682681671399</v>
+        <v>0.9914673471204629</v>
       </c>
       <c r="K22">
-        <v>0.9687553571457121</v>
+        <v>1.00323734897693</v>
       </c>
       <c r="L22">
-        <v>0.9482161266508923</v>
+        <v>0.9921875111703486</v>
       </c>
       <c r="M22">
-        <v>0.8902634836891673</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.997941577620995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9212789225934296</v>
+        <v>0.9634322463125589</v>
       </c>
       <c r="D23">
-        <v>0.9564586778769012</v>
+        <v>0.9909944932064758</v>
       </c>
       <c r="E23">
-        <v>0.9359226961860027</v>
+        <v>0.9802060724618492</v>
       </c>
       <c r="F23">
-        <v>0.8790451559486515</v>
+        <v>0.9862411104792361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013113003336155</v>
+        <v>1.034022019084539</v>
       </c>
       <c r="J23">
-        <v>0.9551517153617308</v>
+        <v>0.9951636807601631</v>
       </c>
       <c r="K23">
-        <v>0.9726108574749522</v>
+        <v>1.006429483998487</v>
       </c>
       <c r="L23">
-        <v>0.9525349072888637</v>
+        <v>0.9958579465129589</v>
       </c>
       <c r="M23">
-        <v>0.8970847191399961</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.001770890675871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9414600325789694</v>
+        <v>0.980671207529623</v>
       </c>
       <c r="D24">
-        <v>0.9721095534549038</v>
+        <v>1.004367596803732</v>
       </c>
       <c r="E24">
-        <v>0.9533544779946567</v>
+        <v>0.9954227347317602</v>
       </c>
       <c r="F24">
-        <v>0.9058592683597171</v>
+        <v>1.002055925910959</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021015523909304</v>
+        <v>1.040561296982095</v>
       </c>
       <c r="J24">
-        <v>0.9714138964743104</v>
+        <v>1.008934155972269</v>
       </c>
       <c r="K24">
-        <v>0.9866448233969766</v>
+        <v>1.01831844423664</v>
       </c>
       <c r="L24">
-        <v>0.9682534424511318</v>
+        <v>1.009530711938517</v>
       </c>
       <c r="M24">
-        <v>0.9217692613161473</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016047033125887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.962265535343883</v>
+        <v>0.9989957730013477</v>
       </c>
       <c r="D25">
-        <v>0.9882927028044938</v>
+        <v>1.018618369476946</v>
       </c>
       <c r="E25">
-        <v>0.9713549865939337</v>
+        <v>1.011626210297817</v>
       </c>
       <c r="F25">
-        <v>0.9332458604888695</v>
+        <v>1.018914109879126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029086260279648</v>
+        <v>1.047449173000348</v>
       </c>
       <c r="J25">
-        <v>0.9881331432716883</v>
+        <v>1.023556980718459</v>
       </c>
       <c r="K25">
-        <v>1.001075519503734</v>
+        <v>1.030934374390639</v>
       </c>
       <c r="L25">
-        <v>0.9844148753307598</v>
+        <v>1.024046685959084</v>
       </c>
       <c r="M25">
-        <v>0.9469771028076215</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.031225736261015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012518091196239</v>
+        <v>1.046306042632584</v>
       </c>
       <c r="D2">
-        <v>1.029152712189963</v>
+        <v>1.05964141270359</v>
       </c>
       <c r="E2">
-        <v>1.023598753302241</v>
+        <v>1.055537555504044</v>
       </c>
       <c r="F2">
-        <v>1.031384043595477</v>
+        <v>1.065191034201111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052477141170098</v>
+        <v>1.063542724059405</v>
       </c>
       <c r="J2">
-        <v>1.034330727825528</v>
+        <v>1.067184767078957</v>
       </c>
       <c r="K2">
-        <v>1.040220311142513</v>
+        <v>1.070327976258848</v>
       </c>
       <c r="L2">
-        <v>1.034738825686392</v>
+        <v>1.066273813859487</v>
       </c>
       <c r="M2">
-        <v>1.042422800913473</v>
+        <v>1.075811150796911</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021803845137061</v>
+        <v>1.052385847850932</v>
       </c>
       <c r="D3">
-        <v>1.036393170665474</v>
+        <v>1.064508148553447</v>
       </c>
       <c r="E3">
-        <v>1.031826381720909</v>
+        <v>1.060721018671386</v>
       </c>
       <c r="F3">
-        <v>1.039961148387847</v>
+        <v>1.07064406846407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05589635518141</v>
+        <v>1.065780556620062</v>
       </c>
       <c r="J3">
-        <v>1.041717262065277</v>
+        <v>1.071543600505059</v>
       </c>
       <c r="K3">
-        <v>1.046580643601357</v>
+        <v>1.074377169381899</v>
       </c>
       <c r="L3">
-        <v>1.042067610219692</v>
+        <v>1.070631725687452</v>
       </c>
       <c r="M3">
-        <v>1.050107028876964</v>
+        <v>1.080446316947011</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027593446301329</v>
+        <v>1.056225426263924</v>
       </c>
       <c r="D4">
-        <v>1.040909468770406</v>
+        <v>1.067584238665374</v>
       </c>
       <c r="E4">
-        <v>1.036958305482339</v>
+        <v>1.06399954942282</v>
       </c>
       <c r="F4">
-        <v>1.045314543505633</v>
+        <v>1.074093487531472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058012199797642</v>
+        <v>1.067184141770041</v>
       </c>
       <c r="J4">
-        <v>1.046316710168273</v>
+        <v>1.074292586922343</v>
       </c>
       <c r="K4">
-        <v>1.05053800477242</v>
+        <v>1.076930070738386</v>
       </c>
       <c r="L4">
-        <v>1.046630235866016</v>
+        <v>1.073382366146506</v>
       </c>
       <c r="M4">
-        <v>1.054895174335359</v>
+        <v>1.083372929636258</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029978593553847</v>
+        <v>1.057817984087045</v>
       </c>
       <c r="D5">
-        <v>1.042770367404082</v>
+        <v>1.068860682437091</v>
       </c>
       <c r="E5">
-        <v>1.039072901876196</v>
+        <v>1.065360546044848</v>
       </c>
       <c r="F5">
-        <v>1.047521226755493</v>
+        <v>1.075525519822866</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058879948993111</v>
+        <v>1.067763949697926</v>
       </c>
       <c r="J5">
-        <v>1.048210033209341</v>
+        <v>1.075431852522658</v>
       </c>
       <c r="K5">
-        <v>1.052166241809051</v>
+        <v>1.077987869623798</v>
       </c>
       <c r="L5">
-        <v>1.048508190515536</v>
+        <v>1.074522848644558</v>
       </c>
       <c r="M5">
-        <v>1.056866957271388</v>
+        <v>1.084586608619851</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030376306231704</v>
+        <v>1.058084143130498</v>
       </c>
       <c r="D6">
-        <v>1.043080678481561</v>
+        <v>1.069074041580985</v>
       </c>
       <c r="E6">
-        <v>1.039425521798464</v>
+        <v>1.065588070830564</v>
       </c>
       <c r="F6">
-        <v>1.047889251292779</v>
+        <v>1.075764925737994</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059024409735648</v>
+        <v>1.067860711002794</v>
       </c>
       <c r="J6">
-        <v>1.048525645142551</v>
+        <v>1.07562219762639</v>
       </c>
       <c r="K6">
-        <v>1.052437617949789</v>
+        <v>1.078164591292553</v>
       </c>
       <c r="L6">
-        <v>1.048821228086522</v>
+        <v>1.074713428177883</v>
       </c>
       <c r="M6">
-        <v>1.057195694021258</v>
+        <v>1.084789433380787</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027625504032033</v>
+        <v>1.056246789683098</v>
       </c>
       <c r="D7">
-        <v>1.040934479237785</v>
+        <v>1.0676013594247</v>
       </c>
       <c r="E7">
-        <v>1.036986725423607</v>
+        <v>1.064017802096394</v>
       </c>
       <c r="F7">
-        <v>1.045344197802504</v>
+        <v>1.074112692499364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058023878460903</v>
+        <v>1.067191929017989</v>
       </c>
       <c r="J7">
-        <v>1.046342163605592</v>
+        <v>1.074307873421982</v>
       </c>
       <c r="K7">
-        <v>1.050559897572164</v>
+        <v>1.076944264945115</v>
       </c>
       <c r="L7">
-        <v>1.046655483533767</v>
+        <v>1.073397666878905</v>
       </c>
       <c r="M7">
-        <v>1.054921679479343</v>
+        <v>1.083389211447642</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015703878371708</v>
+        <v>1.048380931513526</v>
       </c>
       <c r="D8">
-        <v>1.031636289618361</v>
+        <v>1.061301724191361</v>
       </c>
       <c r="E8">
-        <v>1.026421013743338</v>
+        <v>1.057305453423085</v>
       </c>
       <c r="F8">
-        <v>1.034325438354987</v>
+        <v>1.067050794654364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053653563296232</v>
+        <v>1.064308448853239</v>
       </c>
       <c r="J8">
-        <v>1.036866148598194</v>
+        <v>1.068673090566404</v>
       </c>
       <c r="K8">
-        <v>1.042404123102091</v>
+        <v>1.071710736024545</v>
       </c>
       <c r="L8">
-        <v>1.037254604479027</v>
+        <v>1.067761349151082</v>
       </c>
       <c r="M8">
-        <v>1.045059688338223</v>
+        <v>1.077393119831597</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9928339130543867</v>
+        <v>1.033747651420025</v>
       </c>
       <c r="D9">
-        <v>1.013822817713473</v>
+        <v>1.049606189050329</v>
       </c>
       <c r="E9">
-        <v>1.00617465969652</v>
+        <v>1.044861262796598</v>
       </c>
       <c r="F9">
-        <v>1.013240061193236</v>
+        <v>1.053961480002177</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045141585356603</v>
+        <v>1.058868586913266</v>
       </c>
       <c r="J9">
-        <v>1.018642287146412</v>
+        <v>1.058162500895924</v>
       </c>
       <c r="K9">
-        <v>1.026695540716367</v>
+        <v>1.061942630465893</v>
       </c>
       <c r="L9">
-        <v>1.019168345464883</v>
+        <v>1.057266137305213</v>
       </c>
       <c r="M9">
-        <v>1.026121918816073</v>
+        <v>1.066235793724297</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9760279126069147</v>
+        <v>1.023397673315445</v>
       </c>
       <c r="D10">
-        <v>1.000762064219642</v>
+        <v>1.041355163828509</v>
       </c>
       <c r="E10">
-        <v>0.9913213683727871</v>
+        <v>1.036093346528464</v>
       </c>
       <c r="F10">
-        <v>0.9977918517869292</v>
+        <v>1.044740754939983</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038804882106692</v>
+        <v>1.054972715809765</v>
       </c>
       <c r="J10">
-        <v>1.005226011864409</v>
+        <v>1.050712773406974</v>
       </c>
       <c r="K10">
-        <v>1.015117572979968</v>
+        <v>1.055015834219212</v>
       </c>
       <c r="L10">
-        <v>1.005849106329459</v>
+        <v>1.049840132861099</v>
       </c>
       <c r="M10">
-        <v>1.012201089814484</v>
+        <v>1.058346604659187</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9682945579787176</v>
+        <v>1.018756217858977</v>
       </c>
       <c r="D11">
-        <v>0.994762717329159</v>
+        <v>1.037661178618391</v>
       </c>
       <c r="E11">
-        <v>0.9844950590396142</v>
+        <v>1.032170471483293</v>
       </c>
       <c r="F11">
-        <v>0.9906971971818486</v>
+        <v>1.040615640329022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035871286836242</v>
+        <v>1.053214869258134</v>
       </c>
       <c r="J11">
-        <v>0.9990485044140641</v>
+        <v>1.047369010059594</v>
       </c>
       <c r="K11">
-        <v>1.00978408163189</v>
+        <v>1.051906171541882</v>
       </c>
       <c r="L11">
-        <v>0.9997154215809542</v>
+        <v>1.046510173372189</v>
       </c>
       <c r="M11">
-        <v>1.005796709321472</v>
+        <v>1.054810205882609</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9653444173066118</v>
+        <v>1.017006375175366</v>
       </c>
       <c r="D12">
-        <v>0.9924760323437023</v>
+        <v>1.036269574992142</v>
       </c>
       <c r="E12">
-        <v>0.9818924875308213</v>
+        <v>1.030693005127136</v>
       </c>
       <c r="F12">
-        <v>0.9879930944991292</v>
+        <v>1.03906205250136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034749680520064</v>
+        <v>1.052550609138243</v>
       </c>
       <c r="J12">
-        <v>0.9966914928982615</v>
+        <v>1.04610803514649</v>
       </c>
       <c r="K12">
-        <v>1.007748813396508</v>
+        <v>1.050733402897169</v>
       </c>
       <c r="L12">
-        <v>0.9973750202463479</v>
+        <v>1.04525488886251</v>
       </c>
       <c r="M12">
-        <v>1.003354000689539</v>
+        <v>1.053477290555707</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9659809104433764</v>
+        <v>1.017382920406964</v>
       </c>
       <c r="D13">
-        <v>0.9929692899032585</v>
+        <v>1.036568982650845</v>
       </c>
       <c r="E13">
-        <v>0.9824539180015067</v>
+        <v>1.03101087015698</v>
       </c>
       <c r="F13">
-        <v>0.9885763921248713</v>
+        <v>1.039396292388751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034991776362644</v>
+        <v>1.052693618696452</v>
       </c>
       <c r="J13">
-        <v>0.9972000328968035</v>
+        <v>1.046379397162652</v>
       </c>
       <c r="K13">
-        <v>1.008187946940506</v>
+        <v>1.050985786069955</v>
       </c>
       <c r="L13">
-        <v>0.997879981110279</v>
+        <v>1.045525004228926</v>
       </c>
       <c r="M13">
-        <v>1.003880990504433</v>
+        <v>1.053764102134422</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9680523408255446</v>
+        <v>1.018612112552546</v>
       </c>
       <c r="D14">
-        <v>0.9945749302818918</v>
+        <v>1.037546553702781</v>
       </c>
       <c r="E14">
-        <v>0.9842813455545698</v>
+        <v>1.03204876681658</v>
       </c>
       <c r="F14">
-        <v>0.9904751305212577</v>
+        <v>1.040487664302503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035779248197928</v>
+        <v>1.053160196251641</v>
       </c>
       <c r="J14">
-        <v>0.9988549921440792</v>
+        <v>1.047265171611415</v>
       </c>
       <c r="K14">
-        <v>1.009616990070004</v>
+        <v>1.05180959812762</v>
       </c>
       <c r="L14">
-        <v>0.9995232751230818</v>
+        <v>1.046406793608379</v>
       </c>
       <c r="M14">
-        <v>1.00559614344976</v>
+        <v>1.054700428922497</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9693180295127795</v>
+        <v>1.019365983409297</v>
       </c>
       <c r="D15">
-        <v>0.9955562800745138</v>
+        <v>1.038146244184522</v>
       </c>
       <c r="E15">
-        <v>0.9853981547240329</v>
+        <v>1.032685511660796</v>
       </c>
       <c r="F15">
-        <v>0.9916356227195245</v>
+        <v>1.041157222091633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036260089841616</v>
+        <v>1.05344614944342</v>
       </c>
       <c r="J15">
-        <v>0.9998661619435917</v>
+        <v>1.04780837643687</v>
       </c>
       <c r="K15">
-        <v>1.010490091142407</v>
+        <v>1.052314794753384</v>
       </c>
       <c r="L15">
-        <v>1.000527303730662</v>
+        <v>1.046947618740229</v>
       </c>
       <c r="M15">
-        <v>1.006644206170891</v>
+        <v>1.055274728345552</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9765308004976085</v>
+        <v>1.023702195219892</v>
       </c>
       <c r="D16">
-        <v>1.001152439715945</v>
+        <v>1.041597660704995</v>
       </c>
       <c r="E16">
-        <v>0.9917654686315328</v>
+        <v>1.03635092047903</v>
       </c>
       <c r="F16">
-        <v>0.9982535152858624</v>
+        <v>1.045011614731563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038995298698213</v>
+        <v>1.055087829029269</v>
       </c>
       <c r="J16">
-        <v>1.005627659726711</v>
+        <v>1.050932100117847</v>
       </c>
       <c r="K16">
-        <v>1.015464300973714</v>
+        <v>1.055219794209686</v>
       </c>
       <c r="L16">
-        <v>1.006247888759364</v>
+        <v>1.050058620552291</v>
       </c>
       <c r="M16">
-        <v>1.012617604111881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.058578663632389</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809271358143931</v>
+        <v>1.026378184020137</v>
       </c>
       <c r="D17">
-        <v>1.004566395956222</v>
+        <v>1.043729318707514</v>
       </c>
       <c r="E17">
-        <v>0.9956488491634049</v>
+        <v>1.038615397507555</v>
       </c>
       <c r="F17">
-        <v>1.002291044173502</v>
+        <v>1.04739293447484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040657989547539</v>
+        <v>1.056098177147626</v>
       </c>
       <c r="J17">
-        <v>1.009138514640379</v>
+        <v>1.052859111825438</v>
       </c>
       <c r="K17">
-        <v>1.018494830648532</v>
+        <v>1.057011725685461</v>
       </c>
       <c r="L17">
-        <v>1.009733602371533</v>
+        <v>1.051978619502187</v>
       </c>
       <c r="M17">
-        <v>1.016259021980561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.060618065684314</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834481181870879</v>
+        <v>1.027923749403344</v>
       </c>
       <c r="D18">
-        <v>1.006525015557344</v>
+        <v>1.044961073613442</v>
       </c>
       <c r="E18">
-        <v>0.9978764595781004</v>
+        <v>1.039924139922848</v>
       </c>
       <c r="F18">
-        <v>1.004607548800697</v>
+        <v>1.048769239248053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041609761875976</v>
+        <v>1.056680702516551</v>
       </c>
       <c r="J18">
-        <v>1.011151356441425</v>
+        <v>1.053971810356129</v>
       </c>
       <c r="K18">
-        <v>1.020232061296634</v>
+        <v>1.058046366878513</v>
       </c>
       <c r="L18">
-        <v>1.011731949047873</v>
+        <v>1.05308756598789</v>
       </c>
       <c r="M18">
-        <v>1.018347221099476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.06179609575171</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9843006080398954</v>
+        <v>1.028448204618312</v>
       </c>
       <c r="D19">
-        <v>1.007187491269053</v>
+        <v>1.045379138674717</v>
       </c>
       <c r="E19">
-        <v>0.9986298669883883</v>
+        <v>1.040368376038331</v>
       </c>
       <c r="F19">
-        <v>1.005391100815723</v>
+        <v>1.049236414428747</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041931324638738</v>
+        <v>1.05687819547409</v>
       </c>
       <c r="J19">
-        <v>1.011831944786846</v>
+        <v>1.054349331398038</v>
       </c>
       <c r="K19">
-        <v>1.020819417846507</v>
+        <v>1.058397393816377</v>
       </c>
       <c r="L19">
-        <v>1.012407622029385</v>
+        <v>1.053463864145711</v>
       </c>
       <c r="M19">
-        <v>1.019053373585908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.062195856199518</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9804599922352982</v>
+        <v>1.026092669985183</v>
       </c>
       <c r="D20">
-        <v>1.004203535075877</v>
+        <v>1.043501821211774</v>
       </c>
       <c r="E20">
-        <v>0.9952361288833553</v>
+        <v>1.038373700365125</v>
       </c>
       <c r="F20">
-        <v>1.00186189212651</v>
+        <v>1.047138762753695</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040481488022772</v>
+        <v>1.055990483652963</v>
       </c>
       <c r="J20">
-        <v>1.008765498424239</v>
+        <v>1.05265353847748</v>
       </c>
       <c r="K20">
-        <v>1.018172870913895</v>
+        <v>1.056820568700847</v>
       </c>
       <c r="L20">
-        <v>1.009363265664048</v>
+        <v>1.05177376333353</v>
       </c>
       <c r="M20">
-        <v>1.015872081223967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.060400457311751</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9674445808852216</v>
+        <v>1.018250873496219</v>
       </c>
       <c r="D21">
-        <v>0.9941037766468825</v>
+        <v>1.037259232371865</v>
       </c>
       <c r="E21">
-        <v>0.9837451315132222</v>
+        <v>1.031743705052835</v>
       </c>
       <c r="F21">
-        <v>0.9899179706193536</v>
+        <v>1.040166883660217</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035548269831444</v>
+        <v>1.053023118865824</v>
       </c>
       <c r="J21">
-        <v>0.9983694345241041</v>
+        <v>1.047004866731559</v>
       </c>
       <c r="K21">
-        <v>1.009197722475843</v>
+        <v>1.051567504254379</v>
       </c>
       <c r="L21">
-        <v>0.999041142878309</v>
+        <v>1.046147646410955</v>
       </c>
       <c r="M21">
-        <v>1.005092901122224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.054425248614325</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9588062594302049</v>
+        <v>1.013170142183099</v>
       </c>
       <c r="D22">
-        <v>0.9874123345405976</v>
+        <v>1.033220763893822</v>
       </c>
       <c r="E22">
-        <v>0.9761278299958832</v>
+        <v>1.027456736299121</v>
       </c>
       <c r="F22">
-        <v>0.9820050042230346</v>
+        <v>1.035659127508793</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032259563271869</v>
+        <v>1.051091561838283</v>
       </c>
       <c r="J22">
-        <v>0.9914673471204629</v>
+        <v>1.043342974323286</v>
       </c>
       <c r="K22">
-        <v>1.00323734897693</v>
+        <v>1.048161639361275</v>
       </c>
       <c r="L22">
-        <v>0.9921875111703486</v>
+        <v>1.042503211455411</v>
       </c>
       <c r="M22">
-        <v>0.997941577620995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.050555791035762</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9634322463125589</v>
+        <v>1.015878421534328</v>
       </c>
       <c r="D23">
-        <v>0.9909944932064758</v>
+        <v>1.035372850801271</v>
       </c>
       <c r="E23">
-        <v>0.9802060724618492</v>
+        <v>1.029741053582887</v>
       </c>
       <c r="F23">
-        <v>0.9862411104792361</v>
+        <v>1.038061067617989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034022019084539</v>
+        <v>1.052121998043095</v>
       </c>
       <c r="J23">
-        <v>0.9951636807601631</v>
+        <v>1.04529511363921</v>
       </c>
       <c r="K23">
-        <v>1.006429483998487</v>
+        <v>1.04997732664197</v>
       </c>
       <c r="L23">
-        <v>0.9958579465129589</v>
+        <v>1.044445773884302</v>
       </c>
       <c r="M23">
-        <v>1.001770890675871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.05261819092292</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980671207529623</v>
+        <v>1.026221728617724</v>
       </c>
       <c r="D24">
-        <v>1.004367596803732</v>
+        <v>1.043604653306684</v>
       </c>
       <c r="E24">
-        <v>0.9954227347317602</v>
+        <v>1.038482950157623</v>
       </c>
       <c r="F24">
-        <v>1.002055925910959</v>
+        <v>1.047253651089256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040561296982095</v>
+        <v>1.056039166652691</v>
       </c>
       <c r="J24">
-        <v>1.008934155972269</v>
+        <v>1.052746463038318</v>
       </c>
       <c r="K24">
-        <v>1.01831844423664</v>
+        <v>1.056906976870761</v>
       </c>
       <c r="L24">
-        <v>1.009530711938517</v>
+        <v>1.051866362788676</v>
       </c>
       <c r="M24">
-        <v>1.016047033125887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.060498820671447</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9989957730013477</v>
+        <v>1.037629589874635</v>
       </c>
       <c r="D25">
-        <v>1.018618369476946</v>
+        <v>1.0527055419191</v>
       </c>
       <c r="E25">
-        <v>1.011626210297817</v>
+        <v>1.048157029296927</v>
       </c>
       <c r="F25">
-        <v>1.018914109879126</v>
+        <v>1.057427787996061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047449173000348</v>
+        <v>1.060320184740729</v>
       </c>
       <c r="J25">
-        <v>1.023556980718459</v>
+        <v>1.060953699031312</v>
       </c>
       <c r="K25">
-        <v>1.030934374390639</v>
+        <v>1.064537278475542</v>
       </c>
       <c r="L25">
-        <v>1.024046685959084</v>
+        <v>1.060051089828081</v>
       </c>
       <c r="M25">
-        <v>1.031225736261015</v>
+        <v>1.069195533322286</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.046306042632584</v>
+        <v>1.077005770509684</v>
       </c>
       <c r="D2">
-        <v>1.05964141270359</v>
+        <v>1.07910128515306</v>
       </c>
       <c r="E2">
-        <v>1.055537555504044</v>
+        <v>1.080506282421035</v>
       </c>
       <c r="F2">
-        <v>1.065191034201111</v>
+        <v>1.090788279320382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063542724059405</v>
+        <v>1.057794804003207</v>
       </c>
       <c r="J2">
-        <v>1.067184767078957</v>
+        <v>1.081902390064228</v>
       </c>
       <c r="K2">
-        <v>1.070327976258848</v>
+        <v>1.081778218676892</v>
       </c>
       <c r="L2">
-        <v>1.066273813859487</v>
+        <v>1.083179538724866</v>
       </c>
       <c r="M2">
-        <v>1.075811150796911</v>
+        <v>1.093434936186371</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052385847850932</v>
+        <v>1.078262152919711</v>
       </c>
       <c r="D3">
-        <v>1.064508148553447</v>
+        <v>1.080123569077601</v>
       </c>
       <c r="E3">
-        <v>1.060721018671386</v>
+        <v>1.081619605605099</v>
       </c>
       <c r="F3">
-        <v>1.07064406846407</v>
+        <v>1.091963856306752</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065780556620062</v>
+        <v>1.058189823679921</v>
       </c>
       <c r="J3">
-        <v>1.071543600505059</v>
+        <v>1.082817381373135</v>
       </c>
       <c r="K3">
-        <v>1.074377169381899</v>
+        <v>1.08261801192799</v>
       </c>
       <c r="L3">
-        <v>1.070631725687452</v>
+        <v>1.084110416354603</v>
       </c>
       <c r="M3">
-        <v>1.080446316947011</v>
+        <v>1.094429845571146</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056225426263924</v>
+        <v>1.079074988713257</v>
       </c>
       <c r="D4">
-        <v>1.067584238665374</v>
+        <v>1.080784886679979</v>
       </c>
       <c r="E4">
-        <v>1.06399954942282</v>
+        <v>1.082340114499081</v>
       </c>
       <c r="F4">
-        <v>1.074093487531472</v>
+        <v>1.092724739205675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067184141770041</v>
+        <v>1.058444131242422</v>
       </c>
       <c r="J4">
-        <v>1.074292586922343</v>
+        <v>1.083408752860225</v>
       </c>
       <c r="K4">
-        <v>1.076930070738386</v>
+        <v>1.083160632370091</v>
       </c>
       <c r="L4">
-        <v>1.073382366146506</v>
+        <v>1.084712274667444</v>
       </c>
       <c r="M4">
-        <v>1.083372929636258</v>
+        <v>1.095073238099369</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.057817984087045</v>
+        <v>1.079416676290542</v>
       </c>
       <c r="D5">
-        <v>1.068860682437091</v>
+        <v>1.081062865215784</v>
       </c>
       <c r="E5">
-        <v>1.065360546044848</v>
+        <v>1.082643044904913</v>
       </c>
       <c r="F5">
-        <v>1.075525519822866</v>
+        <v>1.093044664867026</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067763949697926</v>
+        <v>1.05855073227108</v>
       </c>
       <c r="J5">
-        <v>1.075431852522658</v>
+        <v>1.083657201620815</v>
       </c>
       <c r="K5">
-        <v>1.077987869623798</v>
+        <v>1.083388563778727</v>
       </c>
       <c r="L5">
-        <v>1.074522848644558</v>
+        <v>1.084965181618334</v>
       </c>
       <c r="M5">
-        <v>1.084586608619851</v>
+        <v>1.095343630351738</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.058084143130498</v>
+        <v>1.079474045518927</v>
       </c>
       <c r="D6">
-        <v>1.069074041580985</v>
+        <v>1.081109536753049</v>
       </c>
       <c r="E6">
-        <v>1.065588070830564</v>
+        <v>1.082693909954061</v>
       </c>
       <c r="F6">
-        <v>1.075764925737994</v>
+        <v>1.093098384788381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067860711002794</v>
+        <v>1.058568612897438</v>
       </c>
       <c r="J6">
-        <v>1.07562219762639</v>
+        <v>1.083698907688431</v>
       </c>
       <c r="K6">
-        <v>1.078164591292553</v>
+        <v>1.083426823573182</v>
       </c>
       <c r="L6">
-        <v>1.074713428177883</v>
+        <v>1.085007639137121</v>
       </c>
       <c r="M6">
-        <v>1.084789433380787</v>
+        <v>1.095389025156865</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056246789683098</v>
+        <v>1.07907955446926</v>
       </c>
       <c r="D7">
-        <v>1.0676013594247</v>
+        <v>1.08078860119635</v>
       </c>
       <c r="E7">
-        <v>1.064017802096394</v>
+        <v>1.082344162156766</v>
       </c>
       <c r="F7">
-        <v>1.074112692499364</v>
+        <v>1.092729013868148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067191929017989</v>
+        <v>1.058445556867494</v>
       </c>
       <c r="J7">
-        <v>1.074307873421982</v>
+        <v>1.083412073286952</v>
       </c>
       <c r="K7">
-        <v>1.076944264945115</v>
+        <v>1.083163678731248</v>
       </c>
       <c r="L7">
-        <v>1.073397666878905</v>
+        <v>1.084715654470242</v>
       </c>
       <c r="M7">
-        <v>1.083389211447642</v>
+        <v>1.095076851446015</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.048380931513526</v>
+        <v>1.077430398438902</v>
       </c>
       <c r="D8">
-        <v>1.061301724191361</v>
+        <v>1.079446806240234</v>
       </c>
       <c r="E8">
-        <v>1.057305453423085</v>
+        <v>1.08088251218453</v>
       </c>
       <c r="F8">
-        <v>1.067050794654364</v>
+        <v>1.091185529127079</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064308448853239</v>
+        <v>1.057928571539647</v>
       </c>
       <c r="J8">
-        <v>1.068673090566404</v>
+        <v>1.082211759032395</v>
       </c>
       <c r="K8">
-        <v>1.071710736024545</v>
+        <v>1.082062193231961</v>
       </c>
       <c r="L8">
-        <v>1.067761349151082</v>
+        <v>1.083494233562162</v>
       </c>
       <c r="M8">
-        <v>1.077393119831597</v>
+        <v>1.093771249888957</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.033747651420025</v>
+        <v>1.074523309072562</v>
       </c>
       <c r="D9">
-        <v>1.049606189050329</v>
+        <v>1.077081059230147</v>
       </c>
       <c r="E9">
-        <v>1.044861262796598</v>
+        <v>1.078307724692237</v>
       </c>
       <c r="F9">
-        <v>1.053961480002177</v>
+        <v>1.088467236221836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058868586913266</v>
+        <v>1.057007622998563</v>
       </c>
       <c r="J9">
-        <v>1.058162500895924</v>
+        <v>1.080091322565268</v>
       </c>
       <c r="K9">
-        <v>1.061942630465893</v>
+        <v>1.080115202330393</v>
       </c>
       <c r="L9">
-        <v>1.057266137305213</v>
+        <v>1.081338196811559</v>
       </c>
       <c r="M9">
-        <v>1.066235793724297</v>
+        <v>1.091467650568301</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.023397673315445</v>
+        <v>1.072584407486494</v>
       </c>
       <c r="D10">
-        <v>1.041355163828509</v>
+        <v>1.075502936145591</v>
       </c>
       <c r="E10">
-        <v>1.036093346528464</v>
+        <v>1.07659168394266</v>
       </c>
       <c r="F10">
-        <v>1.044740754939983</v>
+        <v>1.086655988928857</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054972715809765</v>
+        <v>1.056386929655789</v>
       </c>
       <c r="J10">
-        <v>1.050712773406974</v>
+        <v>1.078674040325063</v>
       </c>
       <c r="K10">
-        <v>1.055015834219212</v>
+        <v>1.078813088750745</v>
       </c>
       <c r="L10">
-        <v>1.049840132861099</v>
+        <v>1.07989825794154</v>
       </c>
       <c r="M10">
-        <v>1.058346604659187</v>
+        <v>1.089929854420749</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.018756217858977</v>
+        <v>1.071744613369308</v>
       </c>
       <c r="D11">
-        <v>1.037661178618391</v>
+        <v>1.074819349437819</v>
       </c>
       <c r="E11">
-        <v>1.032170471483293</v>
+        <v>1.075848717499337</v>
       </c>
       <c r="F11">
-        <v>1.040615640329022</v>
+        <v>1.085871905747681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053214869258134</v>
+        <v>1.056116558694187</v>
       </c>
       <c r="J11">
-        <v>1.047369010059594</v>
+        <v>1.078059456532415</v>
       </c>
       <c r="K11">
-        <v>1.051906171541882</v>
+        <v>1.078248267235919</v>
       </c>
       <c r="L11">
-        <v>1.046510173372189</v>
+        <v>1.079274120380863</v>
       </c>
       <c r="M11">
-        <v>1.054810205882609</v>
+        <v>1.089263465691169</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.017006375175366</v>
+        <v>1.071432638285627</v>
       </c>
       <c r="D12">
-        <v>1.036269574992142</v>
+        <v>1.074565396125409</v>
       </c>
       <c r="E12">
-        <v>1.030693005127136</v>
+        <v>1.075572758744414</v>
       </c>
       <c r="F12">
-        <v>1.03906205250136</v>
+        <v>1.085580690570619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052550609138243</v>
+        <v>1.056015888729517</v>
       </c>
       <c r="J12">
-        <v>1.04610803514649</v>
+        <v>1.077831037263785</v>
       </c>
       <c r="K12">
-        <v>1.050733402897169</v>
+        <v>1.078038316106227</v>
       </c>
       <c r="L12">
-        <v>1.04525488886251</v>
+        <v>1.079042191103309</v>
       </c>
       <c r="M12">
-        <v>1.053477290555707</v>
+        <v>1.089015860665529</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.017382920406964</v>
+        <v>1.071499559767911</v>
       </c>
       <c r="D13">
-        <v>1.036568982650845</v>
+        <v>1.074619871749453</v>
       </c>
       <c r="E13">
-        <v>1.03101087015698</v>
+        <v>1.075631952312979</v>
       </c>
       <c r="F13">
-        <v>1.039396292388751</v>
+        <v>1.085643155963777</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052693618696452</v>
+        <v>1.056037493748902</v>
       </c>
       <c r="J13">
-        <v>1.046379397162652</v>
+        <v>1.07788004012872</v>
       </c>
       <c r="K13">
-        <v>1.050985786069955</v>
+        <v>1.078083358203588</v>
       </c>
       <c r="L13">
-        <v>1.045525004228926</v>
+        <v>1.079091945124541</v>
       </c>
       <c r="M13">
-        <v>1.053764102134422</v>
+        <v>1.08906897636459</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.018612112552546</v>
+        <v>1.071718826204771</v>
       </c>
       <c r="D14">
-        <v>1.037546553702781</v>
+        <v>1.074798358376638</v>
       </c>
       <c r="E14">
-        <v>1.03204876681658</v>
+        <v>1.0758259064254</v>
       </c>
       <c r="F14">
-        <v>1.040487664302503</v>
+        <v>1.085847833244002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053160196251641</v>
+        <v>1.056108242227773</v>
       </c>
       <c r="J14">
-        <v>1.047265171611415</v>
+        <v>1.078040578097425</v>
       </c>
       <c r="K14">
-        <v>1.05180959812762</v>
+        <v>1.078230915703853</v>
       </c>
       <c r="L14">
-        <v>1.046406793608379</v>
+        <v>1.079254951017572</v>
       </c>
       <c r="M14">
-        <v>1.054700428922497</v>
+        <v>1.089243000194391</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.019365983409297</v>
+        <v>1.071853918360469</v>
       </c>
       <c r="D15">
-        <v>1.038146244184522</v>
+        <v>1.074908324699879</v>
       </c>
       <c r="E15">
-        <v>1.032685511660796</v>
+        <v>1.075945409507723</v>
       </c>
       <c r="F15">
-        <v>1.041157222091633</v>
+        <v>1.085973945362667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05344614944342</v>
+        <v>1.056151800590155</v>
       </c>
       <c r="J15">
-        <v>1.04780837643687</v>
+        <v>1.078139472837962</v>
       </c>
       <c r="K15">
-        <v>1.052314794753384</v>
+        <v>1.078321810663929</v>
       </c>
       <c r="L15">
-        <v>1.046947618740229</v>
+        <v>1.079355371457558</v>
       </c>
       <c r="M15">
-        <v>1.055274728345552</v>
+        <v>1.089350211560925</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.023702195219892</v>
+        <v>1.072640136645866</v>
       </c>
       <c r="D16">
-        <v>1.041597660704995</v>
+        <v>1.075548298181665</v>
       </c>
       <c r="E16">
-        <v>1.03635092047903</v>
+        <v>1.076640993954701</v>
       </c>
       <c r="F16">
-        <v>1.045011614731563</v>
+        <v>1.086708029996294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055087829029269</v>
+        <v>1.05640483937007</v>
       </c>
       <c r="J16">
-        <v>1.050932100117847</v>
+        <v>1.078714809314753</v>
       </c>
       <c r="K16">
-        <v>1.055219794209686</v>
+        <v>1.07885055295625</v>
       </c>
       <c r="L16">
-        <v>1.050058620552291</v>
+        <v>1.079939666401958</v>
       </c>
       <c r="M16">
-        <v>1.058578663632389</v>
+        <v>1.089974069510299</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026378184020137</v>
+        <v>1.073133245363372</v>
       </c>
       <c r="D17">
-        <v>1.043729318707514</v>
+        <v>1.075949669013211</v>
       </c>
       <c r="E17">
-        <v>1.038615397507555</v>
+        <v>1.077077338852384</v>
       </c>
       <c r="F17">
-        <v>1.04739293447484</v>
+        <v>1.08716855396798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056098177147626</v>
+        <v>1.056563133221975</v>
       </c>
       <c r="J17">
-        <v>1.052859111825438</v>
+        <v>1.079075462959167</v>
       </c>
       <c r="K17">
-        <v>1.057011725685461</v>
+        <v>1.079181950935578</v>
       </c>
       <c r="L17">
-        <v>1.051978619502187</v>
+        <v>1.080306008267179</v>
       </c>
       <c r="M17">
-        <v>1.060618065684314</v>
+        <v>1.090365260735187</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027923749403344</v>
+        <v>1.073420844648948</v>
       </c>
       <c r="D18">
-        <v>1.044961073613442</v>
+        <v>1.076183757897346</v>
       </c>
       <c r="E18">
-        <v>1.039924139922848</v>
+        <v>1.077331860288495</v>
       </c>
       <c r="F18">
-        <v>1.048769239248053</v>
+        <v>1.087437189107982</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056680702516551</v>
+        <v>1.056655308382048</v>
       </c>
       <c r="J18">
-        <v>1.053971810356129</v>
+        <v>1.079285740245737</v>
       </c>
       <c r="K18">
-        <v>1.058046366878513</v>
+        <v>1.079375153596187</v>
       </c>
       <c r="L18">
-        <v>1.05308756598789</v>
+        <v>1.080519628156726</v>
       </c>
       <c r="M18">
-        <v>1.06179609575171</v>
+        <v>1.090593386580333</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028448204618312</v>
+        <v>1.073518904801964</v>
       </c>
       <c r="D19">
-        <v>1.045379138674717</v>
+        <v>1.076263572139</v>
       </c>
       <c r="E19">
-        <v>1.040368376038331</v>
+        <v>1.077418647066124</v>
       </c>
       <c r="F19">
-        <v>1.049236414428747</v>
+        <v>1.087528790071242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05687819547409</v>
+        <v>1.05668671146783</v>
       </c>
       <c r="J19">
-        <v>1.054349331398038</v>
+        <v>1.079357424846791</v>
       </c>
       <c r="K19">
-        <v>1.058397393816377</v>
+        <v>1.079441014438919</v>
       </c>
       <c r="L19">
-        <v>1.053463864145711</v>
+        <v>1.080592456695122</v>
       </c>
       <c r="M19">
-        <v>1.062195856199518</v>
+        <v>1.090671163268689</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.026092669985183</v>
+        <v>1.073080341831044</v>
       </c>
       <c r="D20">
-        <v>1.043501821211774</v>
+        <v>1.075906608207654</v>
       </c>
       <c r="E20">
-        <v>1.038373700365125</v>
+        <v>1.077030522272197</v>
       </c>
       <c r="F20">
-        <v>1.047138762753695</v>
+        <v>1.087119142120987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055990483652963</v>
+        <v>1.056546165824635</v>
       </c>
       <c r="J20">
-        <v>1.05265353847748</v>
+        <v>1.079036777131941</v>
       </c>
       <c r="K20">
-        <v>1.056820568700847</v>
+        <v>1.079146405027211</v>
       </c>
       <c r="L20">
-        <v>1.05177376333353</v>
+        <v>1.080266709585771</v>
       </c>
       <c r="M20">
-        <v>1.060400457311751</v>
+        <v>1.090323294738373</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.018250873496219</v>
+        <v>1.071654258778073</v>
       </c>
       <c r="D21">
-        <v>1.037259232371865</v>
+        <v>1.07474579959487</v>
       </c>
       <c r="E21">
-        <v>1.031743705052835</v>
+        <v>1.075768791452849</v>
       </c>
       <c r="F21">
-        <v>1.040166883660217</v>
+        <v>1.085787560120446</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053023118865824</v>
+        <v>1.056087415254854</v>
       </c>
       <c r="J21">
-        <v>1.047004866731559</v>
+        <v>1.077993307419712</v>
       </c>
       <c r="K21">
-        <v>1.051567504254379</v>
+        <v>1.078187467884624</v>
       </c>
       <c r="L21">
-        <v>1.046147646410955</v>
+        <v>1.079206952528778</v>
       </c>
       <c r="M21">
-        <v>1.054425248614325</v>
+        <v>1.089191756695458</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.013170142183099</v>
+        <v>1.070757401728997</v>
       </c>
       <c r="D22">
-        <v>1.033220763893822</v>
+        <v>1.074015728144503</v>
       </c>
       <c r="E22">
-        <v>1.027456736299121</v>
+        <v>1.074975560235842</v>
       </c>
       <c r="F22">
-        <v>1.035659127508793</v>
+        <v>1.084950504165097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051091561838283</v>
+        <v>1.055797579169669</v>
       </c>
       <c r="J22">
-        <v>1.043342974323286</v>
+        <v>1.077336451942168</v>
       </c>
       <c r="K22">
-        <v>1.048161639361275</v>
+        <v>1.077583670158446</v>
       </c>
       <c r="L22">
-        <v>1.042503211455411</v>
+        <v>1.078540080434742</v>
       </c>
       <c r="M22">
-        <v>1.050555791035762</v>
+        <v>1.088479858414581</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.015878421534328</v>
+        <v>1.071232864521776</v>
       </c>
       <c r="D23">
-        <v>1.035372850801271</v>
+        <v>1.074402774617868</v>
       </c>
       <c r="E23">
-        <v>1.029741053582887</v>
+        <v>1.075396061084094</v>
       </c>
       <c r="F23">
-        <v>1.038061067617989</v>
+        <v>1.085394228512843</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052121998043095</v>
+        <v>1.05595135985575</v>
       </c>
       <c r="J23">
-        <v>1.04529511363921</v>
+        <v>1.077684738365738</v>
       </c>
       <c r="K23">
-        <v>1.04997732664197</v>
+        <v>1.077903838239687</v>
       </c>
       <c r="L23">
-        <v>1.044445773884302</v>
+        <v>1.07889365559487</v>
       </c>
       <c r="M23">
-        <v>1.05261819092292</v>
+        <v>1.088857292841863</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026221728617724</v>
+        <v>1.073104246730218</v>
       </c>
       <c r="D24">
-        <v>1.043604653306684</v>
+        <v>1.075926065606205</v>
       </c>
       <c r="E24">
-        <v>1.038482950157623</v>
+        <v>1.077051676642378</v>
       </c>
       <c r="F24">
-        <v>1.047253651089256</v>
+        <v>1.08714146914821</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056039166652691</v>
+        <v>1.056553833139997</v>
       </c>
       <c r="J24">
-        <v>1.052746463038318</v>
+        <v>1.079054257857476</v>
       </c>
       <c r="K24">
-        <v>1.056906976870761</v>
+        <v>1.079162466990378</v>
       </c>
       <c r="L24">
-        <v>1.051866362788676</v>
+        <v>1.080284467157241</v>
       </c>
       <c r="M24">
-        <v>1.060498820671447</v>
+        <v>1.09034225751858</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.037629589874635</v>
+        <v>1.075275000564557</v>
       </c>
       <c r="D25">
-        <v>1.0527055419191</v>
+        <v>1.0776928258892</v>
       </c>
       <c r="E25">
-        <v>1.048157029296927</v>
+        <v>1.078973278376621</v>
       </c>
       <c r="F25">
-        <v>1.057427787996061</v>
+        <v>1.089169807356515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060320184740729</v>
+        <v>1.05724689350608</v>
       </c>
       <c r="J25">
-        <v>1.060953699031312</v>
+        <v>1.080640145467534</v>
       </c>
       <c r="K25">
-        <v>1.064537278475542</v>
+        <v>1.080619267594971</v>
       </c>
       <c r="L25">
-        <v>1.060051089828081</v>
+        <v>1.081896033891164</v>
       </c>
       <c r="M25">
-        <v>1.069195533322286</v>
+        <v>1.092063544631949</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077005770509684</v>
+        <v>1.046306042632583</v>
       </c>
       <c r="D2">
-        <v>1.07910128515306</v>
+        <v>1.05964141270359</v>
       </c>
       <c r="E2">
-        <v>1.080506282421035</v>
+        <v>1.055537555504043</v>
       </c>
       <c r="F2">
-        <v>1.090788279320382</v>
+        <v>1.06519103420111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057794804003207</v>
+        <v>1.063542724059405</v>
       </c>
       <c r="J2">
-        <v>1.081902390064228</v>
+        <v>1.067184767078957</v>
       </c>
       <c r="K2">
-        <v>1.081778218676892</v>
+        <v>1.070327976258847</v>
       </c>
       <c r="L2">
-        <v>1.083179538724866</v>
+        <v>1.066273813859486</v>
       </c>
       <c r="M2">
-        <v>1.093434936186371</v>
+        <v>1.07581115079691</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.078262152919711</v>
+        <v>1.052385847850933</v>
       </c>
       <c r="D3">
-        <v>1.080123569077601</v>
+        <v>1.064508148553447</v>
       </c>
       <c r="E3">
-        <v>1.081619605605099</v>
+        <v>1.060721018671386</v>
       </c>
       <c r="F3">
-        <v>1.091963856306752</v>
+        <v>1.07064406846407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058189823679921</v>
+        <v>1.065780556620061</v>
       </c>
       <c r="J3">
-        <v>1.082817381373135</v>
+        <v>1.071543600505059</v>
       </c>
       <c r="K3">
-        <v>1.08261801192799</v>
+        <v>1.074377169381899</v>
       </c>
       <c r="L3">
-        <v>1.084110416354603</v>
+        <v>1.070631725687452</v>
       </c>
       <c r="M3">
-        <v>1.094429845571146</v>
+        <v>1.080446316947011</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.079074988713257</v>
+        <v>1.056225426263926</v>
       </c>
       <c r="D4">
-        <v>1.080784886679979</v>
+        <v>1.067584238665376</v>
       </c>
       <c r="E4">
-        <v>1.082340114499081</v>
+        <v>1.063999549422822</v>
       </c>
       <c r="F4">
-        <v>1.092724739205675</v>
+        <v>1.074093487531474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058444131242422</v>
+        <v>1.067184141770043</v>
       </c>
       <c r="J4">
-        <v>1.083408752860225</v>
+        <v>1.074292586922345</v>
       </c>
       <c r="K4">
-        <v>1.083160632370091</v>
+        <v>1.076930070738388</v>
       </c>
       <c r="L4">
-        <v>1.084712274667444</v>
+        <v>1.073382366146508</v>
       </c>
       <c r="M4">
-        <v>1.095073238099369</v>
+        <v>1.08337292963626</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.079416676290542</v>
+        <v>1.057817984087045</v>
       </c>
       <c r="D5">
-        <v>1.081062865215784</v>
+        <v>1.068860682437091</v>
       </c>
       <c r="E5">
-        <v>1.082643044904913</v>
+        <v>1.065360546044848</v>
       </c>
       <c r="F5">
-        <v>1.093044664867026</v>
+        <v>1.075525519822867</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05855073227108</v>
+        <v>1.067763949697926</v>
       </c>
       <c r="J5">
-        <v>1.083657201620815</v>
+        <v>1.075431852522658</v>
       </c>
       <c r="K5">
-        <v>1.083388563778727</v>
+        <v>1.077987869623798</v>
       </c>
       <c r="L5">
-        <v>1.084965181618334</v>
+        <v>1.074522848644558</v>
       </c>
       <c r="M5">
-        <v>1.095343630351738</v>
+        <v>1.084586608619852</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.079474045518927</v>
+        <v>1.058084143130499</v>
       </c>
       <c r="D6">
-        <v>1.081109536753049</v>
+        <v>1.069074041580986</v>
       </c>
       <c r="E6">
-        <v>1.082693909954061</v>
+        <v>1.065588070830564</v>
       </c>
       <c r="F6">
-        <v>1.093098384788381</v>
+        <v>1.075764925737995</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058568612897438</v>
+        <v>1.067860711002795</v>
       </c>
       <c r="J6">
-        <v>1.083698907688431</v>
+        <v>1.075622197626392</v>
       </c>
       <c r="K6">
-        <v>1.083426823573182</v>
+        <v>1.078164591292554</v>
       </c>
       <c r="L6">
-        <v>1.085007639137121</v>
+        <v>1.074713428177884</v>
       </c>
       <c r="M6">
-        <v>1.095389025156865</v>
+        <v>1.084789433380788</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07907955446926</v>
+        <v>1.056246789683098</v>
       </c>
       <c r="D7">
-        <v>1.08078860119635</v>
+        <v>1.067601359424699</v>
       </c>
       <c r="E7">
-        <v>1.082344162156766</v>
+        <v>1.064017802096393</v>
       </c>
       <c r="F7">
-        <v>1.092729013868148</v>
+        <v>1.074112692499363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058445556867494</v>
+        <v>1.067191929017988</v>
       </c>
       <c r="J7">
-        <v>1.083412073286952</v>
+        <v>1.074307873421981</v>
       </c>
       <c r="K7">
-        <v>1.083163678731248</v>
+        <v>1.076944264945114</v>
       </c>
       <c r="L7">
-        <v>1.084715654470242</v>
+        <v>1.073397666878904</v>
       </c>
       <c r="M7">
-        <v>1.095076851446015</v>
+        <v>1.08338921144764</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.077430398438902</v>
+        <v>1.048380931513527</v>
       </c>
       <c r="D8">
-        <v>1.079446806240234</v>
+        <v>1.061301724191361</v>
       </c>
       <c r="E8">
-        <v>1.08088251218453</v>
+        <v>1.057305453423085</v>
       </c>
       <c r="F8">
-        <v>1.091185529127079</v>
+        <v>1.067050794654364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057928571539647</v>
+        <v>1.06430844885324</v>
       </c>
       <c r="J8">
-        <v>1.082211759032395</v>
+        <v>1.068673090566404</v>
       </c>
       <c r="K8">
-        <v>1.082062193231961</v>
+        <v>1.071710736024545</v>
       </c>
       <c r="L8">
-        <v>1.083494233562162</v>
+        <v>1.067761349151083</v>
       </c>
       <c r="M8">
-        <v>1.093771249888957</v>
+        <v>1.077393119831598</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.074523309072562</v>
+        <v>1.033747651420026</v>
       </c>
       <c r="D9">
-        <v>1.077081059230147</v>
+        <v>1.049606189050331</v>
       </c>
       <c r="E9">
-        <v>1.078307724692237</v>
+        <v>1.044861262796599</v>
       </c>
       <c r="F9">
-        <v>1.088467236221836</v>
+        <v>1.053961480002178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057007622998563</v>
+        <v>1.058868586913267</v>
       </c>
       <c r="J9">
-        <v>1.080091322565268</v>
+        <v>1.058162500895925</v>
       </c>
       <c r="K9">
-        <v>1.080115202330393</v>
+        <v>1.061942630465894</v>
       </c>
       <c r="L9">
-        <v>1.081338196811559</v>
+        <v>1.057266137305214</v>
       </c>
       <c r="M9">
-        <v>1.091467650568301</v>
+        <v>1.066235793724297</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072584407486494</v>
+        <v>1.023397673315445</v>
       </c>
       <c r="D10">
-        <v>1.075502936145591</v>
+        <v>1.041355163828509</v>
       </c>
       <c r="E10">
-        <v>1.07659168394266</v>
+        <v>1.036093346528463</v>
       </c>
       <c r="F10">
-        <v>1.086655988928857</v>
+        <v>1.044740754939982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056386929655789</v>
+        <v>1.054972715809765</v>
       </c>
       <c r="J10">
-        <v>1.078674040325063</v>
+        <v>1.050712773406974</v>
       </c>
       <c r="K10">
-        <v>1.078813088750745</v>
+        <v>1.055015834219212</v>
       </c>
       <c r="L10">
-        <v>1.07989825794154</v>
+        <v>1.049840132861098</v>
       </c>
       <c r="M10">
-        <v>1.089929854420749</v>
+        <v>1.058346604659187</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.071744613369308</v>
+        <v>1.018756217858977</v>
       </c>
       <c r="D11">
-        <v>1.074819349437819</v>
+        <v>1.037661178618391</v>
       </c>
       <c r="E11">
-        <v>1.075848717499337</v>
+        <v>1.032170471483292</v>
       </c>
       <c r="F11">
-        <v>1.085871905747681</v>
+        <v>1.040615640329022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056116558694187</v>
+        <v>1.053214869258134</v>
       </c>
       <c r="J11">
-        <v>1.078059456532415</v>
+        <v>1.047369010059594</v>
       </c>
       <c r="K11">
-        <v>1.078248267235919</v>
+        <v>1.051906171541881</v>
       </c>
       <c r="L11">
-        <v>1.079274120380863</v>
+        <v>1.046510173372189</v>
       </c>
       <c r="M11">
-        <v>1.089263465691169</v>
+        <v>1.054810205882609</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.071432638285627</v>
+        <v>1.017006375175366</v>
       </c>
       <c r="D12">
-        <v>1.074565396125409</v>
+        <v>1.036269574992141</v>
       </c>
       <c r="E12">
-        <v>1.075572758744414</v>
+        <v>1.030693005127136</v>
       </c>
       <c r="F12">
-        <v>1.085580690570619</v>
+        <v>1.039062052501359</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056015888729517</v>
+        <v>1.052550609138243</v>
       </c>
       <c r="J12">
-        <v>1.077831037263785</v>
+        <v>1.046108035146489</v>
       </c>
       <c r="K12">
-        <v>1.078038316106227</v>
+        <v>1.050733402897168</v>
       </c>
       <c r="L12">
-        <v>1.079042191103309</v>
+        <v>1.04525488886251</v>
       </c>
       <c r="M12">
-        <v>1.089015860665529</v>
+        <v>1.053477290555707</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.071499559767911</v>
+        <v>1.017382920406964</v>
       </c>
       <c r="D13">
-        <v>1.074619871749453</v>
+        <v>1.036568982650845</v>
       </c>
       <c r="E13">
-        <v>1.075631952312979</v>
+        <v>1.03101087015698</v>
       </c>
       <c r="F13">
-        <v>1.085643155963777</v>
+        <v>1.039396292388752</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056037493748902</v>
+        <v>1.052693618696453</v>
       </c>
       <c r="J13">
-        <v>1.07788004012872</v>
+        <v>1.046379397162652</v>
       </c>
       <c r="K13">
-        <v>1.078083358203588</v>
+        <v>1.050985786069956</v>
       </c>
       <c r="L13">
-        <v>1.079091945124541</v>
+        <v>1.045525004228927</v>
       </c>
       <c r="M13">
-        <v>1.08906897636459</v>
+        <v>1.053764102134423</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.071718826204771</v>
+        <v>1.018612112552546</v>
       </c>
       <c r="D14">
-        <v>1.074798358376638</v>
+        <v>1.037546553702781</v>
       </c>
       <c r="E14">
-        <v>1.0758259064254</v>
+        <v>1.03204876681658</v>
       </c>
       <c r="F14">
-        <v>1.085847833244002</v>
+        <v>1.040487664302503</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056108242227773</v>
+        <v>1.053160196251641</v>
       </c>
       <c r="J14">
-        <v>1.078040578097425</v>
+        <v>1.047265171611415</v>
       </c>
       <c r="K14">
-        <v>1.078230915703853</v>
+        <v>1.05180959812762</v>
       </c>
       <c r="L14">
-        <v>1.079254951017572</v>
+        <v>1.046406793608379</v>
       </c>
       <c r="M14">
-        <v>1.089243000194391</v>
+        <v>1.054700428922497</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071853918360469</v>
+        <v>1.019365983409297</v>
       </c>
       <c r="D15">
-        <v>1.074908324699879</v>
+        <v>1.038146244184522</v>
       </c>
       <c r="E15">
-        <v>1.075945409507723</v>
+        <v>1.032685511660795</v>
       </c>
       <c r="F15">
-        <v>1.085973945362667</v>
+        <v>1.041157222091633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056151800590155</v>
+        <v>1.05344614944342</v>
       </c>
       <c r="J15">
-        <v>1.078139472837962</v>
+        <v>1.047808376436869</v>
       </c>
       <c r="K15">
-        <v>1.078321810663929</v>
+        <v>1.052314794753384</v>
       </c>
       <c r="L15">
-        <v>1.079355371457558</v>
+        <v>1.046947618740228</v>
       </c>
       <c r="M15">
-        <v>1.089350211560925</v>
+        <v>1.055274728345552</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.072640136645866</v>
+        <v>1.023702195219891</v>
       </c>
       <c r="D16">
-        <v>1.075548298181665</v>
+        <v>1.041597660704994</v>
       </c>
       <c r="E16">
-        <v>1.076640993954701</v>
+        <v>1.03635092047903</v>
       </c>
       <c r="F16">
-        <v>1.086708029996294</v>
+        <v>1.045011614731562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05640483937007</v>
+        <v>1.055087829029268</v>
       </c>
       <c r="J16">
-        <v>1.078714809314753</v>
+        <v>1.050932100117846</v>
       </c>
       <c r="K16">
-        <v>1.07885055295625</v>
+        <v>1.055219794209685</v>
       </c>
       <c r="L16">
-        <v>1.079939666401958</v>
+        <v>1.05005862055229</v>
       </c>
       <c r="M16">
-        <v>1.089974069510299</v>
+        <v>1.058578663632389</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.073133245363372</v>
+        <v>1.026378184020137</v>
       </c>
       <c r="D17">
-        <v>1.075949669013211</v>
+        <v>1.043729318707514</v>
       </c>
       <c r="E17">
-        <v>1.077077338852384</v>
+        <v>1.038615397507555</v>
       </c>
       <c r="F17">
-        <v>1.08716855396798</v>
+        <v>1.04739293447484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056563133221975</v>
+        <v>1.056098177147626</v>
       </c>
       <c r="J17">
-        <v>1.079075462959167</v>
+        <v>1.052859111825438</v>
       </c>
       <c r="K17">
-        <v>1.079181950935578</v>
+        <v>1.057011725685461</v>
       </c>
       <c r="L17">
-        <v>1.080306008267179</v>
+        <v>1.051978619502187</v>
       </c>
       <c r="M17">
-        <v>1.090365260735187</v>
+        <v>1.060618065684314</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.073420844648948</v>
+        <v>1.027923749403343</v>
       </c>
       <c r="D18">
-        <v>1.076183757897346</v>
+        <v>1.044961073613442</v>
       </c>
       <c r="E18">
-        <v>1.077331860288495</v>
+        <v>1.039924139922848</v>
       </c>
       <c r="F18">
-        <v>1.087437189107982</v>
+        <v>1.048769239248052</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056655308382048</v>
+        <v>1.056680702516551</v>
       </c>
       <c r="J18">
-        <v>1.079285740245737</v>
+        <v>1.053971810356129</v>
       </c>
       <c r="K18">
-        <v>1.079375153596187</v>
+        <v>1.058046366878513</v>
       </c>
       <c r="L18">
-        <v>1.080519628156726</v>
+        <v>1.05308756598789</v>
       </c>
       <c r="M18">
-        <v>1.090593386580333</v>
+        <v>1.061796095751709</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073518904801964</v>
+        <v>1.028448204618312</v>
       </c>
       <c r="D19">
-        <v>1.076263572139</v>
+        <v>1.045379138674717</v>
       </c>
       <c r="E19">
-        <v>1.077418647066124</v>
+        <v>1.040368376038331</v>
       </c>
       <c r="F19">
-        <v>1.087528790071242</v>
+        <v>1.049236414428747</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05668671146783</v>
+        <v>1.05687819547409</v>
       </c>
       <c r="J19">
-        <v>1.079357424846791</v>
+        <v>1.054349331398038</v>
       </c>
       <c r="K19">
-        <v>1.079441014438919</v>
+        <v>1.058397393816377</v>
       </c>
       <c r="L19">
-        <v>1.080592456695122</v>
+        <v>1.053463864145711</v>
       </c>
       <c r="M19">
-        <v>1.090671163268689</v>
+        <v>1.062195856199518</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.073080341831044</v>
+        <v>1.026092669985184</v>
       </c>
       <c r="D20">
-        <v>1.075906608207654</v>
+        <v>1.043501821211774</v>
       </c>
       <c r="E20">
-        <v>1.077030522272197</v>
+        <v>1.038373700365125</v>
       </c>
       <c r="F20">
-        <v>1.087119142120987</v>
+        <v>1.047138762753695</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056546165824635</v>
+        <v>1.055990483652963</v>
       </c>
       <c r="J20">
-        <v>1.079036777131941</v>
+        <v>1.052653538477481</v>
       </c>
       <c r="K20">
-        <v>1.079146405027211</v>
+        <v>1.056820568700847</v>
       </c>
       <c r="L20">
-        <v>1.080266709585771</v>
+        <v>1.05177376333353</v>
       </c>
       <c r="M20">
-        <v>1.090323294738373</v>
+        <v>1.060400457311752</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.071654258778073</v>
+        <v>1.018250873496221</v>
       </c>
       <c r="D21">
-        <v>1.07474579959487</v>
+        <v>1.037259232371868</v>
       </c>
       <c r="E21">
-        <v>1.075768791452849</v>
+        <v>1.031743705052838</v>
       </c>
       <c r="F21">
-        <v>1.085787560120446</v>
+        <v>1.04016688366022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056087415254854</v>
+        <v>1.053023118865825</v>
       </c>
       <c r="J21">
-        <v>1.077993307419712</v>
+        <v>1.047004866731561</v>
       </c>
       <c r="K21">
-        <v>1.078187467884624</v>
+        <v>1.051567504254381</v>
       </c>
       <c r="L21">
-        <v>1.079206952528778</v>
+        <v>1.046147646410957</v>
       </c>
       <c r="M21">
-        <v>1.089191756695458</v>
+        <v>1.054425248614327</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.070757401728997</v>
+        <v>1.013170142183101</v>
       </c>
       <c r="D22">
-        <v>1.074015728144503</v>
+        <v>1.033220763893824</v>
       </c>
       <c r="E22">
-        <v>1.074975560235842</v>
+        <v>1.027456736299123</v>
       </c>
       <c r="F22">
-        <v>1.084950504165097</v>
+        <v>1.035659127508795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055797579169669</v>
+        <v>1.051091561838285</v>
       </c>
       <c r="J22">
-        <v>1.077336451942168</v>
+        <v>1.043342974323288</v>
       </c>
       <c r="K22">
-        <v>1.077583670158446</v>
+        <v>1.048161639361277</v>
       </c>
       <c r="L22">
-        <v>1.078540080434742</v>
+        <v>1.042503211455413</v>
       </c>
       <c r="M22">
-        <v>1.088479858414581</v>
+        <v>1.050555791035764</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.071232864521776</v>
+        <v>1.015878421534326</v>
       </c>
       <c r="D23">
-        <v>1.074402774617868</v>
+        <v>1.035372850801269</v>
       </c>
       <c r="E23">
-        <v>1.075396061084094</v>
+        <v>1.029741053582885</v>
       </c>
       <c r="F23">
-        <v>1.085394228512843</v>
+        <v>1.038061067617987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05595135985575</v>
+        <v>1.052121998043094</v>
       </c>
       <c r="J23">
-        <v>1.077684738365738</v>
+        <v>1.045295113639208</v>
       </c>
       <c r="K23">
-        <v>1.077903838239687</v>
+        <v>1.049977326641969</v>
       </c>
       <c r="L23">
-        <v>1.07889365559487</v>
+        <v>1.0444457738843</v>
       </c>
       <c r="M23">
-        <v>1.088857292841863</v>
+        <v>1.052618190922919</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.073104246730218</v>
+        <v>1.026221728617722</v>
       </c>
       <c r="D24">
-        <v>1.075926065606205</v>
+        <v>1.043604653306683</v>
       </c>
       <c r="E24">
-        <v>1.077051676642378</v>
+        <v>1.038482950157621</v>
       </c>
       <c r="F24">
-        <v>1.08714146914821</v>
+        <v>1.047253651089255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056553833139997</v>
+        <v>1.05603916665269</v>
       </c>
       <c r="J24">
-        <v>1.079054257857476</v>
+        <v>1.052746463038316</v>
       </c>
       <c r="K24">
-        <v>1.079162466990378</v>
+        <v>1.05690697687076</v>
       </c>
       <c r="L24">
-        <v>1.080284467157241</v>
+        <v>1.051866362788674</v>
       </c>
       <c r="M24">
-        <v>1.09034225751858</v>
+        <v>1.060498820671445</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075275000564557</v>
+        <v>1.037629589874635</v>
       </c>
       <c r="D25">
-        <v>1.0776928258892</v>
+        <v>1.052705541919101</v>
       </c>
       <c r="E25">
-        <v>1.078973278376621</v>
+        <v>1.048157029296927</v>
       </c>
       <c r="F25">
-        <v>1.089169807356515</v>
+        <v>1.057427787996061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05724689350608</v>
+        <v>1.060320184740729</v>
       </c>
       <c r="J25">
-        <v>1.080640145467534</v>
+        <v>1.060953699031312</v>
       </c>
       <c r="K25">
-        <v>1.080619267594971</v>
+        <v>1.064537278475541</v>
       </c>
       <c r="L25">
-        <v>1.081896033891164</v>
+        <v>1.060051089828081</v>
       </c>
       <c r="M25">
-        <v>1.092063544631949</v>
+        <v>1.069195533322286</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046306042632583</v>
+        <v>1.018066480861496</v>
       </c>
       <c r="D2">
-        <v>1.05964141270359</v>
+        <v>1.033467263428335</v>
       </c>
       <c r="E2">
-        <v>1.055537555504043</v>
+        <v>1.030364267108622</v>
       </c>
       <c r="F2">
-        <v>1.06519103420111</v>
+        <v>1.03911771089087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063542724059405</v>
+        <v>1.054936039911731</v>
       </c>
       <c r="J2">
-        <v>1.067184767078957</v>
+        <v>1.039719934696948</v>
       </c>
       <c r="K2">
-        <v>1.070327976258847</v>
+        <v>1.044479234106154</v>
       </c>
       <c r="L2">
-        <v>1.066273813859486</v>
+        <v>1.041416186411485</v>
       </c>
       <c r="M2">
-        <v>1.07581115079691</v>
+        <v>1.050057701517721</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048189663163863</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042520951074884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052385847850933</v>
+        <v>1.023521271482119</v>
       </c>
       <c r="D3">
-        <v>1.064508148553447</v>
+        <v>1.037164864394118</v>
       </c>
       <c r="E3">
-        <v>1.060721018671386</v>
+        <v>1.034729529317523</v>
       </c>
       <c r="F3">
-        <v>1.07064406846407</v>
+        <v>1.043041252463264</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065780556620061</v>
+        <v>1.056409919363588</v>
       </c>
       <c r="J3">
-        <v>1.071543600505059</v>
+        <v>1.043390632616669</v>
       </c>
       <c r="K3">
-        <v>1.074377169381899</v>
+        <v>1.0473433115814</v>
       </c>
       <c r="L3">
-        <v>1.070631725687452</v>
+        <v>1.044936516926217</v>
       </c>
       <c r="M3">
-        <v>1.080446316947011</v>
+        <v>1.053151510398401</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050638175666719</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044543435620542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056225426263926</v>
+        <v>1.026970254813041</v>
       </c>
       <c r="D4">
-        <v>1.067584238665376</v>
+        <v>1.039504695749432</v>
       </c>
       <c r="E4">
-        <v>1.063999549422822</v>
+        <v>1.037495089623404</v>
       </c>
       <c r="F4">
-        <v>1.074093487531474</v>
+        <v>1.045529683021356</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067184141770043</v>
+        <v>1.057328125405141</v>
       </c>
       <c r="J4">
-        <v>1.074292586922345</v>
+        <v>1.045708345089587</v>
       </c>
       <c r="K4">
-        <v>1.076930070738388</v>
+        <v>1.049148613511786</v>
       </c>
       <c r="L4">
-        <v>1.073382366146508</v>
+        <v>1.047161100835024</v>
       </c>
       <c r="M4">
-        <v>1.08337292963626</v>
+        <v>1.055107986888939</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052186572648131</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045820814011728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057817984087045</v>
+        <v>1.028408876987607</v>
       </c>
       <c r="D5">
-        <v>1.068860682437091</v>
+        <v>1.040483549319696</v>
       </c>
       <c r="E5">
-        <v>1.065360546044848</v>
+        <v>1.038651342861067</v>
       </c>
       <c r="F5">
-        <v>1.075525519822867</v>
+        <v>1.046569483621667</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067763949697926</v>
+        <v>1.057709660115329</v>
       </c>
       <c r="J5">
-        <v>1.075431852522658</v>
+        <v>1.04667646989517</v>
       </c>
       <c r="K5">
-        <v>1.077987869623798</v>
+        <v>1.049903760275217</v>
       </c>
       <c r="L5">
-        <v>1.074522848644558</v>
+        <v>1.048091147064461</v>
       </c>
       <c r="M5">
-        <v>1.084586608619852</v>
+        <v>1.055925214917606</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052833343294129</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046361869406609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058084143130499</v>
+        <v>1.028658110377026</v>
       </c>
       <c r="D6">
-        <v>1.069074041580986</v>
+        <v>1.040656172294842</v>
       </c>
       <c r="E6">
-        <v>1.065588070830564</v>
+        <v>1.03885348248805</v>
       </c>
       <c r="F6">
-        <v>1.075764925737995</v>
+        <v>1.04674981422508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067860711002795</v>
+        <v>1.057777862952518</v>
       </c>
       <c r="J6">
-        <v>1.075622197626392</v>
+        <v>1.04684680500719</v>
       </c>
       <c r="K6">
-        <v>1.078164591292554</v>
+        <v>1.050038789011849</v>
       </c>
       <c r="L6">
-        <v>1.074713428177884</v>
+        <v>1.048255286086238</v>
       </c>
       <c r="M6">
-        <v>1.084789433380788</v>
+        <v>1.056068171384513</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052946481851015</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046466013953518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056246789683098</v>
+        <v>1.02701326715099</v>
       </c>
       <c r="D7">
-        <v>1.067601359424699</v>
+        <v>1.039542077321489</v>
       </c>
       <c r="E7">
-        <v>1.064017802096393</v>
+        <v>1.037534466237209</v>
       </c>
       <c r="F7">
-        <v>1.074112692499363</v>
+        <v>1.045561031910663</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067191929017988</v>
+        <v>1.057345746150956</v>
       </c>
       <c r="J7">
-        <v>1.074307873421981</v>
+        <v>1.04574448579397</v>
       </c>
       <c r="K7">
-        <v>1.076944264945114</v>
+        <v>1.049182735764508</v>
       </c>
       <c r="L7">
-        <v>1.073397666878904</v>
+        <v>1.047197186850011</v>
       </c>
       <c r="M7">
-        <v>1.08338921144764</v>
+        <v>1.055136169243113</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052208876737489</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045864889379654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048380931513527</v>
+        <v>1.019957632662218</v>
       </c>
       <c r="D8">
-        <v>1.061301724191361</v>
+        <v>1.03475895508914</v>
       </c>
       <c r="E8">
-        <v>1.057305453423085</v>
+        <v>1.03188303051</v>
       </c>
       <c r="F8">
-        <v>1.067050794654364</v>
+        <v>1.040476886567869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06430844885324</v>
+        <v>1.055457514927609</v>
       </c>
       <c r="J8">
-        <v>1.068673090566404</v>
+        <v>1.041002331573641</v>
       </c>
       <c r="K8">
-        <v>1.071710736024545</v>
+        <v>1.04548781144138</v>
       </c>
       <c r="L8">
-        <v>1.067761349151083</v>
+        <v>1.042647773471434</v>
       </c>
       <c r="M8">
-        <v>1.077393119831598</v>
+        <v>1.051135126039813</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049042362972955</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043256863943333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033747651420026</v>
+        <v>1.006829643310347</v>
       </c>
       <c r="D9">
-        <v>1.049606189050331</v>
+        <v>1.025864830889232</v>
       </c>
       <c r="E9">
-        <v>1.044861262796599</v>
+        <v>1.0214060998587</v>
       </c>
       <c r="F9">
-        <v>1.053961480002178</v>
+        <v>1.031081180819214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058868586913267</v>
+        <v>1.05182715432269</v>
       </c>
       <c r="J9">
-        <v>1.058162500895925</v>
+        <v>1.032143513150576</v>
       </c>
       <c r="K9">
-        <v>1.061942630465894</v>
+        <v>1.038551758374594</v>
       </c>
       <c r="L9">
-        <v>1.057266137305214</v>
+        <v>1.034161169002978</v>
       </c>
       <c r="M9">
-        <v>1.066235793724297</v>
+        <v>1.043689340284222</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043149568017696</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038349471366387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023397673315445</v>
+        <v>0.9977409153173166</v>
       </c>
       <c r="D10">
-        <v>1.041355163828509</v>
+        <v>1.019742388146517</v>
       </c>
       <c r="E10">
-        <v>1.036093346528463</v>
+        <v>1.014246461851592</v>
       </c>
       <c r="F10">
-        <v>1.044740754939982</v>
+        <v>1.024711454961961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054972715809765</v>
+        <v>1.049273179752126</v>
       </c>
       <c r="J10">
-        <v>1.050712773406974</v>
+        <v>1.026044451200216</v>
       </c>
       <c r="K10">
-        <v>1.055015834219212</v>
+        <v>1.03376410773189</v>
       </c>
       <c r="L10">
-        <v>1.049840132861098</v>
+        <v>1.028363169583999</v>
       </c>
       <c r="M10">
-        <v>1.058346604659187</v>
+        <v>1.038648424363373</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039211417322842</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034981091353862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018756217858977</v>
+        <v>0.9949561977946662</v>
       </c>
       <c r="D11">
-        <v>1.037661178618391</v>
+        <v>1.017999303762572</v>
       </c>
       <c r="E11">
-        <v>1.032170471483292</v>
+        <v>1.012524027938859</v>
       </c>
       <c r="F11">
-        <v>1.040615640329022</v>
+        <v>1.023467381292693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053214869258134</v>
+        <v>1.048685882199342</v>
       </c>
       <c r="J11">
-        <v>1.047369010059594</v>
+        <v>1.024540320692986</v>
       </c>
       <c r="K11">
-        <v>1.051906171541881</v>
+        <v>1.032589579200371</v>
       </c>
       <c r="L11">
-        <v>1.046510173372189</v>
+        <v>1.027213562142899</v>
       </c>
       <c r="M11">
-        <v>1.054810205882609</v>
+        <v>1.037959903765882</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039102425845413</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034183516598267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017006375175366</v>
+        <v>0.9943688235354885</v>
       </c>
       <c r="D12">
-        <v>1.036269574992141</v>
+        <v>1.017693908882937</v>
       </c>
       <c r="E12">
-        <v>1.030693005127136</v>
+        <v>1.012406868372043</v>
       </c>
       <c r="F12">
-        <v>1.039062052501359</v>
+        <v>1.023573525710158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052550609138243</v>
+        <v>1.048665312888764</v>
       </c>
       <c r="J12">
-        <v>1.046108035146489</v>
+        <v>1.024413431799113</v>
       </c>
       <c r="K12">
-        <v>1.050733402897168</v>
+        <v>1.03248979517049</v>
       </c>
       <c r="L12">
-        <v>1.04525488886251</v>
+        <v>1.027300170942686</v>
       </c>
       <c r="M12">
-        <v>1.053477290555707</v>
+        <v>1.038262613452445</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039667954005232</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034112965924916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017382920406964</v>
+        <v>0.9954690150332068</v>
       </c>
       <c r="D13">
-        <v>1.036568982650845</v>
+        <v>1.018507213089296</v>
       </c>
       <c r="E13">
-        <v>1.03101087015698</v>
+        <v>1.01355150012728</v>
       </c>
       <c r="F13">
-        <v>1.039396292388752</v>
+        <v>1.024761499144201</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052693618696453</v>
+        <v>1.049102127229893</v>
       </c>
       <c r="J13">
-        <v>1.046379397162652</v>
+        <v>1.025373052419042</v>
       </c>
       <c r="K13">
-        <v>1.050985786069956</v>
+        <v>1.033245357212234</v>
       </c>
       <c r="L13">
-        <v>1.045525004228927</v>
+        <v>1.028380421749988</v>
       </c>
       <c r="M13">
-        <v>1.053764102134423</v>
+        <v>1.039386706650552</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040833077370163</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034644679533227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018612112552546</v>
+        <v>0.9969957745647283</v>
       </c>
       <c r="D14">
-        <v>1.037546553702781</v>
+        <v>1.019578628243722</v>
       </c>
       <c r="E14">
-        <v>1.03204876681658</v>
+        <v>1.014915224542793</v>
       </c>
       <c r="F14">
-        <v>1.040487664302503</v>
+        <v>1.026075416437848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053160196251641</v>
+        <v>1.04961202489679</v>
       </c>
       <c r="J14">
-        <v>1.047265171611415</v>
+        <v>1.026529902624574</v>
       </c>
       <c r="K14">
-        <v>1.05180959812762</v>
+        <v>1.034157027761508</v>
       </c>
       <c r="L14">
-        <v>1.046406793608379</v>
+        <v>1.029577845939861</v>
       </c>
       <c r="M14">
-        <v>1.054700428922497</v>
+        <v>1.040538137750546</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041916325721842</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03529068619229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019365983409297</v>
+        <v>0.9977487922396419</v>
       </c>
       <c r="D15">
-        <v>1.038146244184522</v>
+        <v>1.020096176895954</v>
       </c>
       <c r="E15">
-        <v>1.032685511660795</v>
+        <v>1.015540484262373</v>
       </c>
       <c r="F15">
-        <v>1.041157222091633</v>
+        <v>1.026653240915156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05344614944342</v>
+        <v>1.049843435108855</v>
       </c>
       <c r="J15">
-        <v>1.047808376436869</v>
+        <v>1.027063867134427</v>
       </c>
       <c r="K15">
-        <v>1.052314794753384</v>
+        <v>1.03457892568553</v>
       </c>
       <c r="L15">
-        <v>1.046947618740228</v>
+        <v>1.030104828509843</v>
       </c>
       <c r="M15">
-        <v>1.055274728345552</v>
+        <v>1.04102019528059</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042334821619628</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03559485101156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023702195219891</v>
+        <v>1.001394197525006</v>
       </c>
       <c r="D16">
-        <v>1.041597660704994</v>
+        <v>1.022537376187817</v>
       </c>
       <c r="E16">
-        <v>1.03635092047903</v>
+        <v>1.01835631449467</v>
       </c>
       <c r="F16">
-        <v>1.045011614731562</v>
+        <v>1.029153636878121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055087829029268</v>
+        <v>1.050861461908045</v>
       </c>
       <c r="J16">
-        <v>1.050932100117846</v>
+        <v>1.029476000376472</v>
       </c>
       <c r="K16">
-        <v>1.055219794209685</v>
+        <v>1.036475775715598</v>
       </c>
       <c r="L16">
-        <v>1.05005862055229</v>
+        <v>1.03236613663272</v>
       </c>
       <c r="M16">
-        <v>1.058578663632389</v>
+        <v>1.042980542739601</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043845646021588</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036939144410253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026378184020137</v>
+        <v>1.003394003242359</v>
       </c>
       <c r="D17">
-        <v>1.043729318707514</v>
+        <v>1.023852587599883</v>
       </c>
       <c r="E17">
-        <v>1.038615397507555</v>
+        <v>1.019806747213597</v>
       </c>
       <c r="F17">
-        <v>1.04739293447484</v>
+        <v>1.030381555465656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056098177147626</v>
+        <v>1.051373387280483</v>
       </c>
       <c r="J17">
-        <v>1.052859111825438</v>
+        <v>1.030722376819289</v>
       </c>
       <c r="K17">
-        <v>1.057011725685461</v>
+        <v>1.037454932293146</v>
       </c>
       <c r="L17">
-        <v>1.051978619502187</v>
+        <v>1.033476181838347</v>
       </c>
       <c r="M17">
-        <v>1.060618065684314</v>
+        <v>1.043877060972938</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044425580365199</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037634019936307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027923749403343</v>
+        <v>1.004126310483006</v>
       </c>
       <c r="D18">
-        <v>1.044961073613442</v>
+        <v>1.02428359548295</v>
       </c>
       <c r="E18">
-        <v>1.039924139922848</v>
+        <v>1.020158158045592</v>
       </c>
       <c r="F18">
-        <v>1.048769239248052</v>
+        <v>1.030557672185821</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056680702516551</v>
+        <v>1.051477148005109</v>
       </c>
       <c r="J18">
-        <v>1.053971810356129</v>
+        <v>1.03103433204472</v>
       </c>
       <c r="K18">
-        <v>1.058046366878513</v>
+        <v>1.037695926163344</v>
       </c>
       <c r="L18">
-        <v>1.05308756598789</v>
+        <v>1.033637776593169</v>
       </c>
       <c r="M18">
-        <v>1.061796095751709</v>
+        <v>1.043868993524839</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044182221535558</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037792795214528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028448204618312</v>
+        <v>1.003739173346406</v>
       </c>
       <c r="D19">
-        <v>1.045379138674717</v>
+        <v>1.023944244338855</v>
       </c>
       <c r="E19">
-        <v>1.040368376038331</v>
+        <v>1.0195396555538</v>
       </c>
       <c r="F19">
-        <v>1.049236414428747</v>
+        <v>1.029793485467276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05687819547409</v>
+        <v>1.051228820295828</v>
       </c>
       <c r="J19">
-        <v>1.054349331398038</v>
+        <v>1.030527853824113</v>
       </c>
       <c r="K19">
-        <v>1.058397393816377</v>
+        <v>1.037299685379352</v>
       </c>
       <c r="L19">
-        <v>1.053463864145711</v>
+        <v>1.032966640440553</v>
       </c>
       <c r="M19">
-        <v>1.062195856199518</v>
+        <v>1.04305512945719</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043214196188992</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03751902590266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026092669985184</v>
+        <v>1.00017836319505</v>
       </c>
       <c r="D20">
-        <v>1.043501821211774</v>
+        <v>1.02140448640174</v>
       </c>
       <c r="E20">
-        <v>1.038373700365125</v>
+        <v>1.016182428742802</v>
       </c>
       <c r="F20">
-        <v>1.047138762753695</v>
+        <v>1.026422989032989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055990483652963</v>
+        <v>1.049979230216283</v>
       </c>
       <c r="J20">
-        <v>1.052653538477481</v>
+        <v>1.027702410971284</v>
       </c>
       <c r="K20">
-        <v>1.056820568700847</v>
+        <v>1.035081123364467</v>
       </c>
       <c r="L20">
-        <v>1.05177376333353</v>
+        <v>1.029946575249302</v>
       </c>
       <c r="M20">
-        <v>1.060400457311752</v>
+        <v>1.040016606741101</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040283649015604</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03595435491842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018250873496221</v>
+        <v>0.9930567522840662</v>
       </c>
       <c r="D21">
-        <v>1.037259232371868</v>
+        <v>1.016587675181572</v>
       </c>
       <c r="E21">
-        <v>1.031743705052838</v>
+        <v>1.0104970108439</v>
       </c>
       <c r="F21">
-        <v>1.04016688366022</v>
+        <v>1.021315117957581</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053023118865825</v>
+        <v>1.047913283846448</v>
       </c>
       <c r="J21">
-        <v>1.047004866731561</v>
+        <v>1.022847663755848</v>
       </c>
       <c r="K21">
-        <v>1.051567504254381</v>
+        <v>1.031261459097637</v>
       </c>
       <c r="L21">
-        <v>1.046147646410957</v>
+        <v>1.025282206213016</v>
       </c>
       <c r="M21">
-        <v>1.054425248614327</v>
+        <v>1.035903616584725</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036987685987238</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03325696515612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013170142183101</v>
+        <v>0.9885016958732814</v>
       </c>
       <c r="D22">
-        <v>1.033220763893824</v>
+        <v>1.013511336601326</v>
       </c>
       <c r="E22">
-        <v>1.027456736299123</v>
+        <v>1.006890811602343</v>
       </c>
       <c r="F22">
-        <v>1.035659127508795</v>
+        <v>1.018102923292618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051091561838285</v>
+        <v>1.046585087687092</v>
       </c>
       <c r="J22">
-        <v>1.043342974323288</v>
+        <v>1.019754990378579</v>
       </c>
       <c r="K22">
-        <v>1.048161639361277</v>
+        <v>1.028819800497788</v>
       </c>
       <c r="L22">
-        <v>1.042503211455413</v>
+        <v>1.022326985082666</v>
       </c>
       <c r="M22">
-        <v>1.050555791035764</v>
+        <v>1.033324090435551</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034946151044609</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031517074027636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015878421534326</v>
+        <v>0.9909032996310655</v>
       </c>
       <c r="D23">
-        <v>1.035372850801269</v>
+        <v>1.015125102891707</v>
       </c>
       <c r="E23">
-        <v>1.029741053582885</v>
+        <v>1.008785033291415</v>
       </c>
       <c r="F23">
-        <v>1.038061067617987</v>
+        <v>1.019794296694287</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052121998043094</v>
+        <v>1.047281244191444</v>
       </c>
       <c r="J23">
-        <v>1.045295113639208</v>
+        <v>1.0213786028335</v>
       </c>
       <c r="K23">
-        <v>1.049977326641969</v>
+        <v>1.030096752996769</v>
       </c>
       <c r="L23">
-        <v>1.0444457738843</v>
+        <v>1.02387561546587</v>
       </c>
       <c r="M23">
-        <v>1.052618190922919</v>
+        <v>1.034679590173071</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036018945739986</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032410271999434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026221728617722</v>
+        <v>1.000135658684012</v>
       </c>
       <c r="D24">
-        <v>1.043604653306683</v>
+        <v>1.021352440298215</v>
       </c>
       <c r="E24">
-        <v>1.038482950157621</v>
+        <v>1.016096056870236</v>
       </c>
       <c r="F24">
-        <v>1.047253651089255</v>
+        <v>1.026323332780986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05603916665269</v>
+        <v>1.049939301578197</v>
       </c>
       <c r="J24">
-        <v>1.052746463038316</v>
+        <v>1.02762848753718</v>
       </c>
       <c r="K24">
-        <v>1.05690697687076</v>
+        <v>1.035014679612994</v>
       </c>
       <c r="L24">
-        <v>1.051866362788674</v>
+        <v>1.029846283410657</v>
       </c>
       <c r="M24">
-        <v>1.060498820671445</v>
+        <v>1.03990343008793</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040153278705939</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03587997394548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037629589874635</v>
+        <v>1.010347489619818</v>
       </c>
       <c r="D25">
-        <v>1.052705541919101</v>
+        <v>1.028258377238656</v>
       </c>
       <c r="E25">
-        <v>1.048157029296927</v>
+        <v>1.024216740401676</v>
       </c>
       <c r="F25">
-        <v>1.057427787996061</v>
+        <v>1.03359184833926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060320184740729</v>
+        <v>1.052821599755456</v>
       </c>
       <c r="J25">
-        <v>1.060953699031312</v>
+        <v>1.034531567906653</v>
       </c>
       <c r="K25">
-        <v>1.064537278475541</v>
+        <v>1.040433302707943</v>
       </c>
       <c r="L25">
-        <v>1.060051089828081</v>
+        <v>1.036450404143147</v>
       </c>
       <c r="M25">
-        <v>1.069195533322286</v>
+        <v>1.045690150740813</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044733067831486</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039708340252709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018066480861496</v>
+        <v>1.016364891989245</v>
       </c>
       <c r="D2">
-        <v>1.033467263428335</v>
+        <v>1.031424528636815</v>
       </c>
       <c r="E2">
-        <v>1.030364267108622</v>
+        <v>1.029233066126914</v>
       </c>
       <c r="F2">
-        <v>1.03911771089087</v>
+        <v>1.038122439962606</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054936039911731</v>
+        <v>1.053892641613825</v>
       </c>
       <c r="J2">
-        <v>1.039719934696948</v>
+        <v>1.038066911340596</v>
       </c>
       <c r="K2">
-        <v>1.044479234106154</v>
+        <v>1.042462764096972</v>
       </c>
       <c r="L2">
-        <v>1.041416186411485</v>
+        <v>1.040299623727869</v>
       </c>
       <c r="M2">
-        <v>1.050057701517721</v>
+        <v>1.049075038185143</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048189663163863</v>
+        <v>1.047411958795331</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042520951074884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04110387722422</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02297173255291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023521271482119</v>
+        <v>1.021465916614182</v>
       </c>
       <c r="D3">
-        <v>1.037164864394118</v>
+        <v>1.034732478546273</v>
       </c>
       <c r="E3">
-        <v>1.034729529317523</v>
+        <v>1.03327702033851</v>
       </c>
       <c r="F3">
-        <v>1.043041252463264</v>
+        <v>1.041802154935697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056409919363588</v>
+        <v>1.055165751153586</v>
       </c>
       <c r="J3">
-        <v>1.043390632616669</v>
+        <v>1.041388025761805</v>
       </c>
       <c r="K3">
-        <v>1.0473433115814</v>
+        <v>1.044939431491506</v>
       </c>
       <c r="L3">
-        <v>1.044936516926217</v>
+        <v>1.043501109640032</v>
       </c>
       <c r="M3">
-        <v>1.053151510398401</v>
+        <v>1.051926712209578</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050638175666719</v>
+        <v>1.049668842777675</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044543435620542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042852149876548</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023562738590161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026970254813041</v>
+        <v>1.024695176932124</v>
       </c>
       <c r="D4">
-        <v>1.039504695749432</v>
+        <v>1.036828668618617</v>
       </c>
       <c r="E4">
-        <v>1.037495089623404</v>
+        <v>1.035843178562602</v>
       </c>
       <c r="F4">
-        <v>1.045529683021356</v>
+        <v>1.044139191678213</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057328125405141</v>
+        <v>1.055958206192341</v>
       </c>
       <c r="J4">
-        <v>1.045708345089587</v>
+        <v>1.043487599339294</v>
       </c>
       <c r="K4">
-        <v>1.049148613511786</v>
+        <v>1.046502029650174</v>
       </c>
       <c r="L4">
-        <v>1.047161100835024</v>
+        <v>1.045527429669472</v>
       </c>
       <c r="M4">
-        <v>1.055107986888939</v>
+        <v>1.053732555952311</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052186572648131</v>
+        <v>1.051098027772975</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045820814011728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043957999152282</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023933060816351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028408876987607</v>
+        <v>1.026042340115448</v>
       </c>
       <c r="D5">
-        <v>1.040483549319696</v>
+        <v>1.03770604447987</v>
       </c>
       <c r="E5">
-        <v>1.038651342861067</v>
+        <v>1.03691614012532</v>
       </c>
       <c r="F5">
-        <v>1.046569483621667</v>
+        <v>1.045115821543358</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057709660115329</v>
+        <v>1.056287300474998</v>
       </c>
       <c r="J5">
-        <v>1.04667646989517</v>
+        <v>1.044364718159907</v>
       </c>
       <c r="K5">
-        <v>1.049903760275217</v>
+        <v>1.047155990667191</v>
       </c>
       <c r="L5">
-        <v>1.048091147064461</v>
+        <v>1.046374578475123</v>
       </c>
       <c r="M5">
-        <v>1.055925214917606</v>
+        <v>1.054486870704621</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052833343294129</v>
+        <v>1.051695008475468</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046361869406609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044428225346664</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024088764311283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028658110377026</v>
+        <v>1.026274924295171</v>
       </c>
       <c r="D6">
-        <v>1.040656172294842</v>
+        <v>1.037860543643807</v>
       </c>
       <c r="E6">
-        <v>1.03885348248805</v>
+        <v>1.03710270253822</v>
       </c>
       <c r="F6">
-        <v>1.04674981422508</v>
+        <v>1.045284445863341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057777862952518</v>
+        <v>1.056346118663593</v>
       </c>
       <c r="J6">
-        <v>1.04684680500719</v>
+        <v>1.04451849810654</v>
       </c>
       <c r="K6">
-        <v>1.050038789011849</v>
+        <v>1.047272950423015</v>
       </c>
       <c r="L6">
-        <v>1.048255286086238</v>
+        <v>1.04652321872192</v>
       </c>
       <c r="M6">
-        <v>1.056068171384513</v>
+        <v>1.054618172198226</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052946481851015</v>
+        <v>1.051798923215347</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046466013953518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044520470258556</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024118204115945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02701326715099</v>
+        <v>1.024733052549746</v>
       </c>
       <c r="D7">
-        <v>1.039542077321489</v>
+        <v>1.036861383315566</v>
       </c>
       <c r="E7">
-        <v>1.037534466237209</v>
+        <v>1.03587672003977</v>
       </c>
       <c r="F7">
-        <v>1.045561031910663</v>
+        <v>1.044166417287225</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057345746150956</v>
+        <v>1.055973371769302</v>
       </c>
       <c r="J7">
-        <v>1.04574448579397</v>
+        <v>1.043518700448363</v>
       </c>
       <c r="K7">
-        <v>1.049182735764508</v>
+        <v>1.046531524116924</v>
       </c>
       <c r="L7">
-        <v>1.047197186850011</v>
+        <v>1.045557737303458</v>
       </c>
       <c r="M7">
-        <v>1.055136169243113</v>
+        <v>1.053756653630515</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052208876737489</v>
+        <v>1.051117099194241</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045864889379654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044000818434361</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023944521518508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019957632662218</v>
+        <v>1.018129117276019</v>
       </c>
       <c r="D8">
-        <v>1.03475895508914</v>
+        <v>1.032578191683203</v>
       </c>
       <c r="E8">
-        <v>1.03188303051</v>
+        <v>1.030634927188835</v>
       </c>
       <c r="F8">
-        <v>1.040476886567869</v>
+        <v>1.039393332237008</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055457514927609</v>
+        <v>1.054342976461905</v>
       </c>
       <c r="J8">
-        <v>1.041002331573641</v>
+        <v>1.039224191133791</v>
       </c>
       <c r="K8">
-        <v>1.04548781144138</v>
+        <v>1.04333423739013</v>
       </c>
       <c r="L8">
-        <v>1.042647773471434</v>
+        <v>1.041415322054839</v>
       </c>
       <c r="M8">
-        <v>1.051135126039813</v>
+        <v>1.050064879449003</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049042362972955</v>
+        <v>1.048195343955419</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043256863943333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041745129033206</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023185990972397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006829643310347</v>
+        <v>1.005881022540727</v>
       </c>
       <c r="D9">
-        <v>1.025864830889232</v>
+        <v>1.02464104445255</v>
       </c>
       <c r="E9">
-        <v>1.0214060998587</v>
+        <v>1.020958650151137</v>
       </c>
       <c r="F9">
-        <v>1.031081180819214</v>
+        <v>1.030604632229584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05182715432269</v>
+        <v>1.051204493969173</v>
       </c>
       <c r="J9">
-        <v>1.032143513150576</v>
+        <v>1.031227802407143</v>
       </c>
       <c r="K9">
-        <v>1.038551758374594</v>
+        <v>1.037346599467281</v>
       </c>
       <c r="L9">
-        <v>1.034161169002978</v>
+        <v>1.033720599498488</v>
       </c>
       <c r="M9">
-        <v>1.043689340284222</v>
+        <v>1.043219945555305</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043149568017696</v>
+        <v>1.042778074825903</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038349471366387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037508064837304</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02173762684342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9977409153173166</v>
+        <v>0.9974118604810283</v>
       </c>
       <c r="D10">
-        <v>1.019742388146517</v>
+        <v>1.019185655282044</v>
       </c>
       <c r="E10">
-        <v>1.014246461851592</v>
+        <v>1.01435446707333</v>
       </c>
       <c r="F10">
-        <v>1.024711454961961</v>
+        <v>1.024658182137667</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049273179752126</v>
+        <v>1.048992117626482</v>
       </c>
       <c r="J10">
-        <v>1.026044451200216</v>
+        <v>1.025728541836995</v>
       </c>
       <c r="K10">
-        <v>1.03376410773189</v>
+        <v>1.03321693680674</v>
       </c>
       <c r="L10">
-        <v>1.028363169583999</v>
+        <v>1.028469295275199</v>
       </c>
       <c r="M10">
-        <v>1.038648424363373</v>
+        <v>1.038596054510413</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039211417322842</v>
+        <v>1.039169972599417</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034981091353862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034606629445077</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020743718705325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9949561977946662</v>
+        <v>0.9946823695278311</v>
       </c>
       <c r="D11">
-        <v>1.017999303762572</v>
+        <v>1.0175401819263</v>
       </c>
       <c r="E11">
-        <v>1.012524027938859</v>
+        <v>1.012619748702627</v>
       </c>
       <c r="F11">
-        <v>1.023467381292693</v>
+        <v>1.023422720663346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048685882199342</v>
+        <v>1.048454035906571</v>
       </c>
       <c r="J11">
-        <v>1.024540320692986</v>
+        <v>1.024278053699493</v>
       </c>
       <c r="K11">
-        <v>1.032589579200371</v>
+        <v>1.032138727241459</v>
       </c>
       <c r="L11">
-        <v>1.027213562142899</v>
+        <v>1.027307535628891</v>
       </c>
       <c r="M11">
-        <v>1.037959903765882</v>
+        <v>1.037916036045786</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039102425845413</v>
+        <v>1.039067727006877</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034183516598267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033880388051222</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020621961687158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9943688235354885</v>
+        <v>0.9940340367622726</v>
       </c>
       <c r="D12">
-        <v>1.017693908882937</v>
+        <v>1.017198167231054</v>
       </c>
       <c r="E12">
-        <v>1.012406868372043</v>
+        <v>1.012401277908596</v>
       </c>
       <c r="F12">
-        <v>1.023573525710158</v>
+        <v>1.023465729972434</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048665312888764</v>
+        <v>1.048414339968858</v>
       </c>
       <c r="J12">
-        <v>1.024413431799113</v>
+        <v>1.024093050738541</v>
       </c>
       <c r="K12">
-        <v>1.03248979517049</v>
+        <v>1.03200313176835</v>
       </c>
       <c r="L12">
-        <v>1.027300170942686</v>
+        <v>1.027294684188511</v>
       </c>
       <c r="M12">
-        <v>1.038262613452445</v>
+        <v>1.038156761384525</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039667954005232</v>
+        <v>1.039584254586514</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034112965924916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033784519413371</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020690686756973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9954690150332068</v>
+        <v>0.9949747255462681</v>
       </c>
       <c r="D13">
-        <v>1.018507213089296</v>
+        <v>1.017864614137466</v>
       </c>
       <c r="E13">
-        <v>1.01355150012728</v>
+        <v>1.013364119530273</v>
       </c>
       <c r="F13">
-        <v>1.024761499144201</v>
+        <v>1.024527431913217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049102127229893</v>
+        <v>1.048775827460165</v>
       </c>
       <c r="J13">
-        <v>1.025373052419042</v>
+        <v>1.024899892121648</v>
       </c>
       <c r="K13">
-        <v>1.033245357212234</v>
+        <v>1.032614464308088</v>
       </c>
       <c r="L13">
-        <v>1.028380421749988</v>
+        <v>1.028196496246619</v>
       </c>
       <c r="M13">
-        <v>1.039386706650552</v>
+        <v>1.039156833820725</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040833077370163</v>
+        <v>1.040651357702273</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034644679533227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034214005705089</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020924874912378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9969957745647283</v>
+        <v>0.9963482104505315</v>
       </c>
       <c r="D14">
-        <v>1.019578628243722</v>
+        <v>1.018785690349961</v>
       </c>
       <c r="E14">
-        <v>1.014915224542793</v>
+        <v>1.014567443353411</v>
       </c>
       <c r="F14">
-        <v>1.026075416437848</v>
+        <v>1.025726753440507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04961202489679</v>
+        <v>1.04920874837654</v>
       </c>
       <c r="J14">
-        <v>1.026529902624574</v>
+        <v>1.025909573652398</v>
       </c>
       <c r="K14">
-        <v>1.034157027761508</v>
+        <v>1.033378339762418</v>
       </c>
       <c r="L14">
-        <v>1.029577845939861</v>
+        <v>1.029236386104749</v>
       </c>
       <c r="M14">
-        <v>1.040538137750546</v>
+        <v>1.040195634594153</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041916325721842</v>
+        <v>1.041645605583158</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03529068619229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034755644983514</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021162662225983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9977487922396419</v>
+        <v>0.9970401092855368</v>
       </c>
       <c r="D15">
-        <v>1.020096176895954</v>
+        <v>1.019240437643365</v>
       </c>
       <c r="E15">
-        <v>1.015540484262373</v>
+        <v>1.015133370765962</v>
       </c>
       <c r="F15">
-        <v>1.026653240915156</v>
+        <v>1.02626097388751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049843435108855</v>
+        <v>1.049408022285637</v>
       </c>
       <c r="J15">
-        <v>1.027063867134427</v>
+        <v>1.026384706018643</v>
       </c>
       <c r="K15">
-        <v>1.03457892568553</v>
+        <v>1.033738441050107</v>
       </c>
       <c r="L15">
-        <v>1.030104828509843</v>
+        <v>1.029705053022965</v>
       </c>
       <c r="M15">
-        <v>1.04102019528059</v>
+        <v>1.040634801573198</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042334821619628</v>
+        <v>1.042030208020972</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03559485101156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035016686869736</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021261588070881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001394197525006</v>
+        <v>1.00045692427373</v>
       </c>
       <c r="D16">
-        <v>1.022537376187817</v>
+        <v>1.021429464080596</v>
       </c>
       <c r="E16">
-        <v>1.01835631449467</v>
+        <v>1.017754873722242</v>
       </c>
       <c r="F16">
-        <v>1.029153636878121</v>
+        <v>1.028610457813744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050861461908045</v>
+        <v>1.050297145473413</v>
       </c>
       <c r="J16">
-        <v>1.029476000376472</v>
+        <v>1.028575697942021</v>
       </c>
       <c r="K16">
-        <v>1.036475775715598</v>
+        <v>1.035386715878913</v>
       </c>
       <c r="L16">
-        <v>1.03236613663272</v>
+        <v>1.031775032334493</v>
       </c>
       <c r="M16">
-        <v>1.042980542739601</v>
+        <v>1.042446447386009</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043845646021588</v>
+        <v>1.043423486901947</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036939144410253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036185519057844</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021645388865207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003394003242359</v>
+        <v>1.002360051377071</v>
       </c>
       <c r="D17">
-        <v>1.023852587599883</v>
+        <v>1.022628712849314</v>
       </c>
       <c r="E17">
-        <v>1.019806747213597</v>
+        <v>1.019137908702604</v>
       </c>
       <c r="F17">
-        <v>1.030381555465656</v>
+        <v>1.029781007859203</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051373387280483</v>
+        <v>1.050749799528481</v>
       </c>
       <c r="J17">
-        <v>1.030722376819289</v>
+        <v>1.029727837422997</v>
       </c>
       <c r="K17">
-        <v>1.037454932293146</v>
+        <v>1.036251280294984</v>
       </c>
       <c r="L17">
-        <v>1.033476181838347</v>
+        <v>1.032818500413011</v>
       </c>
       <c r="M17">
-        <v>1.043877060972938</v>
+        <v>1.043286267978234</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044425580365199</v>
+        <v>1.04395855985588</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037634019936307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036799617537054</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021815264026602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004126310483006</v>
+        <v>1.00310830660665</v>
       </c>
       <c r="D18">
-        <v>1.02428359548295</v>
+        <v>1.02305762190999</v>
       </c>
       <c r="E18">
-        <v>1.020158158045592</v>
+        <v>1.01953515941799</v>
       </c>
       <c r="F18">
-        <v>1.030557672185821</v>
+        <v>1.02998199893864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051477148005109</v>
+        <v>1.050852646331793</v>
       </c>
       <c r="J18">
-        <v>1.03103433204472</v>
+        <v>1.030054397989957</v>
       </c>
       <c r="K18">
-        <v>1.037695926163344</v>
+        <v>1.036489876003366</v>
       </c>
       <c r="L18">
-        <v>1.033637776593169</v>
+        <v>1.033025000232514</v>
       </c>
       <c r="M18">
-        <v>1.043868993524839</v>
+        <v>1.043302522571649</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044182221535558</v>
+        <v>1.043734334687658</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037792795214528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036955554145955</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021801681928505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003739173346406</v>
+        <v>1.002834483929245</v>
       </c>
       <c r="D19">
-        <v>1.023944244338855</v>
+        <v>1.022815735516891</v>
       </c>
       <c r="E19">
-        <v>1.0195396555538</v>
+        <v>1.01905864591731</v>
       </c>
       <c r="F19">
-        <v>1.029793485467276</v>
+        <v>1.029313281415237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051228820295828</v>
+        <v>1.050654419389413</v>
       </c>
       <c r="J19">
-        <v>1.030527853824113</v>
+        <v>1.02965683018043</v>
       </c>
       <c r="K19">
-        <v>1.037299685379352</v>
+        <v>1.03618943156866</v>
       </c>
       <c r="L19">
-        <v>1.032966640440553</v>
+        <v>1.032493492001749</v>
       </c>
       <c r="M19">
-        <v>1.04305512945719</v>
+        <v>1.042582574366258</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043214196188992</v>
+        <v>1.042840443665386</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03751902590266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036750145922146</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021635825481906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00017836319505</v>
+        <v>0.99967106261839</v>
       </c>
       <c r="D20">
-        <v>1.02140448640174</v>
+        <v>1.020660434281959</v>
       </c>
       <c r="E20">
-        <v>1.016182428742802</v>
+        <v>1.016126375328368</v>
       </c>
       <c r="F20">
-        <v>1.026422989032989</v>
+        <v>1.026245845613921</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049979230216283</v>
+        <v>1.049602140224941</v>
       </c>
       <c r="J20">
-        <v>1.027702410971284</v>
+        <v>1.027214670141307</v>
       </c>
       <c r="K20">
-        <v>1.035081123364467</v>
+        <v>1.034349469352639</v>
       </c>
       <c r="L20">
-        <v>1.029946575249302</v>
+        <v>1.029891467453773</v>
       </c>
       <c r="M20">
-        <v>1.040016606741101</v>
+        <v>1.039842375959549</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040283649015604</v>
+        <v>1.040145763790052</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03595435491842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035453561275874</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021030792029102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9930567522840662</v>
+        <v>0.9930729888520486</v>
       </c>
       <c r="D21">
-        <v>1.016587675181572</v>
+        <v>1.016394565938526</v>
       </c>
       <c r="E21">
-        <v>1.0104970108439</v>
+        <v>1.010921273733683</v>
       </c>
       <c r="F21">
-        <v>1.021315117957581</v>
+        <v>1.021500745327701</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047913283846448</v>
+        <v>1.047818026236896</v>
       </c>
       <c r="J21">
-        <v>1.022847663755848</v>
+        <v>1.022863207886549</v>
       </c>
       <c r="K21">
-        <v>1.031261459097637</v>
+        <v>1.031071855577076</v>
       </c>
       <c r="L21">
-        <v>1.025282206213016</v>
+        <v>1.025698651732847</v>
       </c>
       <c r="M21">
-        <v>1.035903616584725</v>
+        <v>1.036085916072041</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036987685987238</v>
+        <v>1.037131964501564</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03325696515612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033139774502734</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020209500535934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885016958732814</v>
+        <v>0.9888570258013702</v>
       </c>
       <c r="D22">
-        <v>1.013511336601326</v>
+        <v>1.013672276514654</v>
       </c>
       <c r="E22">
-        <v>1.006890811602343</v>
+        <v>1.00762382920507</v>
       </c>
       <c r="F22">
-        <v>1.018102923292618</v>
+        <v>1.01852240415819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046585087687092</v>
+        <v>1.046670725603402</v>
       </c>
       <c r="J22">
-        <v>1.019754990378579</v>
+        <v>1.020094207658971</v>
       </c>
       <c r="K22">
-        <v>1.028819800497788</v>
+        <v>1.028977663066775</v>
       </c>
       <c r="L22">
-        <v>1.022326985082666</v>
+        <v>1.023045754502221</v>
       </c>
       <c r="M22">
-        <v>1.033324090435551</v>
+        <v>1.033735647266489</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034946151044609</v>
+        <v>1.035271873142487</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031517074027636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031644271156195</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019684770137288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9909032996310655</v>
+        <v>0.9910827022072919</v>
       </c>
       <c r="D23">
-        <v>1.015125102891707</v>
+        <v>1.015101460800083</v>
       </c>
       <c r="E23">
-        <v>1.008785033291415</v>
+        <v>1.009359475723025</v>
       </c>
       <c r="F23">
-        <v>1.019794296694287</v>
+        <v>1.020093265265003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047281244191444</v>
+        <v>1.047272675286109</v>
       </c>
       <c r="J23">
-        <v>1.0213786028335</v>
+        <v>1.021550128798725</v>
       </c>
       <c r="K23">
-        <v>1.030096752996769</v>
+        <v>1.030073550802214</v>
       </c>
       <c r="L23">
-        <v>1.02387561546587</v>
+        <v>1.02443920161147</v>
       </c>
       <c r="M23">
-        <v>1.034679590173071</v>
+        <v>1.034973064407528</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036018945739986</v>
+        <v>1.036251212337477</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032410271999434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032408494905436</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019954936484756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000135658684012</v>
+        <v>0.9996490034562536</v>
       </c>
       <c r="D24">
-        <v>1.021352440298215</v>
+        <v>1.020625142606154</v>
       </c>
       <c r="E24">
-        <v>1.016096056870236</v>
+        <v>1.016066276110895</v>
       </c>
       <c r="F24">
-        <v>1.026323332780986</v>
+        <v>1.026164016540807</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049939301578197</v>
+        <v>1.049570944621777</v>
       </c>
       <c r="J24">
-        <v>1.02762848753718</v>
+        <v>1.027160571401607</v>
       </c>
       <c r="K24">
-        <v>1.035014679612994</v>
+        <v>1.034299486653212</v>
       </c>
       <c r="L24">
-        <v>1.029846283410657</v>
+        <v>1.0298170045001</v>
       </c>
       <c r="M24">
-        <v>1.03990343008793</v>
+        <v>1.039746730609369</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040153278705939</v>
+        <v>1.040029261504677</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03587997394548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035388138092277</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020998797557263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010347489619818</v>
+        <v>1.009153490390376</v>
       </c>
       <c r="D25">
-        <v>1.028258377238656</v>
+        <v>1.026771611217998</v>
       </c>
       <c r="E25">
-        <v>1.024216740401676</v>
+        <v>1.023543822597406</v>
       </c>
       <c r="F25">
-        <v>1.03359184833926</v>
+        <v>1.032944957175394</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052821599755456</v>
+        <v>1.052063877899283</v>
       </c>
       <c r="J25">
-        <v>1.034531567906653</v>
+        <v>1.033376681604705</v>
       </c>
       <c r="K25">
-        <v>1.040433302707943</v>
+        <v>1.038968076117534</v>
       </c>
       <c r="L25">
-        <v>1.036450404143147</v>
+        <v>1.035787323210779</v>
       </c>
       <c r="M25">
-        <v>1.045690150740813</v>
+        <v>1.045052499739282</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044733067831486</v>
+        <v>1.044228412583969</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039708340252709</v>
+        <v>1.038685861614213</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022139778280912</v>
       </c>
     </row>
   </sheetData>
